--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{791F7921-5A28-403D-9DEC-0431A15CC1BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{98AB5C95-D5D8-498B-90BA-ACD40B229C52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:AU1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -456,16 +456,16 @@
     <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -607,8 +607,11 @@
       <c r="AU3" s="6">
         <v>44011</v>
       </c>
+      <c r="AV3" s="6">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -750,8 +753,11 @@
       <c r="AU4" s="1">
         <v>12</v>
       </c>
+      <c r="AV4" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -893,8 +899,11 @@
       <c r="AU5" s="1">
         <v>85</v>
       </c>
+      <c r="AV5" s="1">
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1045,11 @@
       <c r="AU6" s="1">
         <v>9</v>
       </c>
+      <c r="AV6" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1179,8 +1191,11 @@
       <c r="AU7" s="1">
         <v>88</v>
       </c>
+      <c r="AV7" s="1">
+        <v>88</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1322,8 +1337,11 @@
       <c r="AU8" s="1">
         <v>25</v>
       </c>
+      <c r="AV8" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1465,8 +1483,11 @@
       <c r="AU9" s="1">
         <v>28</v>
       </c>
+      <c r="AV9" s="1">
+        <v>28</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1608,8 +1629,11 @@
       <c r="AU10" s="1">
         <v>6</v>
       </c>
+      <c r="AV10" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1751,8 +1775,11 @@
       <c r="AU11" s="1">
         <v>7</v>
       </c>
+      <c r="AV11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1894,16 +1921,20 @@
       <c r="AU12" s="4">
         <v>260</v>
       </c>
+      <c r="AV12" s="4">
+        <f>SUM(AV4:AV11)</f>
+        <v>267</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1916,13 +1947,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1930,16 +1961,16 @@
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2081,8 +2112,11 @@
       <c r="AU3" s="6">
         <v>44011</v>
       </c>
+      <c r="AV3" s="6">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2224,8 +2258,11 @@
       <c r="AU4" s="1">
         <v>40</v>
       </c>
+      <c r="AV4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2367,8 +2404,11 @@
       <c r="AU5" s="1">
         <v>288</v>
       </c>
+      <c r="AV5" s="1">
+        <v>303</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2510,8 +2550,11 @@
       <c r="AU6" s="1">
         <v>17</v>
       </c>
+      <c r="AV6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2653,8 +2696,11 @@
       <c r="AU7" s="1">
         <v>247</v>
       </c>
+      <c r="AV7" s="1">
+        <v>247</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2796,8 +2842,11 @@
       <c r="AU8" s="1">
         <v>118</v>
       </c>
+      <c r="AV8" s="1">
+        <v>118</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2939,8 +2988,11 @@
       <c r="AU9" s="1">
         <v>12</v>
       </c>
+      <c r="AV9" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3082,8 +3134,11 @@
       <c r="AU10" s="1">
         <v>10</v>
       </c>
+      <c r="AV10" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3225,8 +3280,11 @@
       <c r="AU11" s="1">
         <v>7</v>
       </c>
+      <c r="AV11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3369,16 +3427,19 @@
         <f>SUM(AU4:AU11)</f>
         <v>739</v>
       </c>
+      <c r="AV12" s="4">
+        <v>759</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3390,13 +3451,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:AU1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3404,16 +3465,16 @@
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3555,8 +3616,11 @@
       <c r="AU3" s="6">
         <v>44011</v>
       </c>
+      <c r="AV3" s="6">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3698,8 +3762,11 @@
       <c r="AU4" s="1">
         <v>2</v>
       </c>
+      <c r="AV4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3841,8 +3908,11 @@
       <c r="AU5" s="1">
         <v>70</v>
       </c>
+      <c r="AV5" s="1">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3984,8 +4054,11 @@
       <c r="AU6" s="1">
         <v>5</v>
       </c>
+      <c r="AV6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4127,8 +4200,11 @@
       <c r="AU7" s="1">
         <v>36</v>
       </c>
+      <c r="AV7" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4270,8 +4346,11 @@
       <c r="AU8" s="1">
         <v>20</v>
       </c>
+      <c r="AV8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4413,8 +4492,11 @@
       <c r="AU9" s="1">
         <v>5</v>
       </c>
+      <c r="AV9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4556,8 +4638,11 @@
       <c r="AU10" s="1">
         <v>0</v>
       </c>
+      <c r="AV10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4699,8 +4784,11 @@
       <c r="AU11" s="1">
         <v>2</v>
       </c>
+      <c r="AV11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4842,16 +4930,19 @@
       <c r="AU12" s="4">
         <v>140</v>
       </c>
+      <c r="AV12" s="4">
+        <v>142</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4863,13 +4954,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AU16"/>
+  <dimension ref="A1:AV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:AU1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4877,16 +4968,16 @@
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5028,8 +5119,11 @@
       <c r="AU3" s="6">
         <v>44011</v>
       </c>
+      <c r="AV3" s="6">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5171,8 +5265,11 @@
       <c r="AU4" s="1">
         <v>19</v>
       </c>
+      <c r="AV4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5314,8 +5411,11 @@
       <c r="AU5" s="1">
         <v>84</v>
       </c>
+      <c r="AV5" s="1">
+        <v>86</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5457,8 +5557,11 @@
       <c r="AU6" s="1">
         <v>11</v>
       </c>
+      <c r="AV6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5600,8 +5703,11 @@
       <c r="AU7" s="1">
         <v>113</v>
       </c>
+      <c r="AV7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5743,8 +5849,11 @@
       <c r="AU8" s="1">
         <v>71</v>
       </c>
+      <c r="AV8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5886,8 +5995,11 @@
       <c r="AU9" s="1">
         <v>6</v>
       </c>
+      <c r="AV9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6029,8 +6141,11 @@
       <c r="AU10" s="1">
         <v>2</v>
       </c>
+      <c r="AV10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6172,8 +6287,11 @@
       <c r="AU11" s="1">
         <v>1</v>
       </c>
+      <c r="AV11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6316,21 +6434,24 @@
       <c r="AU12" s="4">
         <v>307</v>
       </c>
+      <c r="AV12" s="4">
+        <v>309</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{98AB5C95-D5D8-498B-90BA-ACD40B229C52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EFF920A1-DCB8-4BD6-B9A3-94921BD9024C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -442,30 +442,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AW3" sqref="AW3:AW12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.71875" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -610,8 +611,11 @@
       <c r="AV3" s="6">
         <v>44012</v>
       </c>
+      <c r="AW3" s="6">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -756,8 +760,11 @@
       <c r="AV4" s="1">
         <v>12</v>
       </c>
+      <c r="AW4" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -902,8 +909,11 @@
       <c r="AV5" s="1">
         <v>88</v>
       </c>
+      <c r="AW5" s="1">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1048,8 +1058,11 @@
       <c r="AV6" s="1">
         <v>9</v>
       </c>
+      <c r="AW6" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1194,8 +1207,11 @@
       <c r="AV7" s="1">
         <v>88</v>
       </c>
+      <c r="AW7" s="1">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1340,8 +1356,11 @@
       <c r="AV8" s="1">
         <v>26</v>
       </c>
+      <c r="AW8" s="1">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1486,8 +1505,11 @@
       <c r="AV9" s="1">
         <v>28</v>
       </c>
+      <c r="AW9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1632,8 +1654,11 @@
       <c r="AV10" s="1">
         <v>9</v>
       </c>
+      <c r="AW10" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1778,8 +1803,11 @@
       <c r="AV11" s="1">
         <v>7</v>
       </c>
+      <c r="AW11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1925,16 +1953,19 @@
         <f>SUM(AV4:AV11)</f>
         <v>267</v>
       </c>
+      <c r="AW12" s="4">
+        <v>275</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1947,30 +1978,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AW4" sqref="AW4:AW12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.7578125" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2115,8 +2147,11 @@
       <c r="AV3" s="6">
         <v>44012</v>
       </c>
+      <c r="AW3" s="6">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2261,8 +2296,11 @@
       <c r="AV4" s="1">
         <v>40</v>
       </c>
+      <c r="AW4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2407,8 +2445,11 @@
       <c r="AV5" s="1">
         <v>303</v>
       </c>
+      <c r="AW5" s="1">
+        <v>305</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2553,8 +2594,11 @@
       <c r="AV6" s="1">
         <v>17</v>
       </c>
+      <c r="AW6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2699,8 +2743,11 @@
       <c r="AV7" s="1">
         <v>247</v>
       </c>
+      <c r="AW7" s="1">
+        <v>255</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2845,8 +2892,11 @@
       <c r="AV8" s="1">
         <v>118</v>
       </c>
+      <c r="AW8" s="1">
+        <v>118</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2991,8 +3041,11 @@
       <c r="AV9" s="1">
         <v>12</v>
       </c>
+      <c r="AW9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3137,8 +3190,11 @@
       <c r="AV10" s="1">
         <v>15</v>
       </c>
+      <c r="AW10" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3283,8 +3339,11 @@
       <c r="AV11" s="1">
         <v>7</v>
       </c>
+      <c r="AW11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3430,16 +3489,19 @@
       <c r="AV12" s="4">
         <v>759</v>
       </c>
+      <c r="AW12" s="4">
+        <v>770</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3451,30 +3513,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AW4" sqref="AW4:AW12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.078125" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3619,8 +3682,11 @@
       <c r="AV3" s="6">
         <v>44012</v>
       </c>
+      <c r="AW3" s="6">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3765,8 +3831,11 @@
       <c r="AV4" s="1">
         <v>2</v>
       </c>
+      <c r="AW4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3911,8 +3980,11 @@
       <c r="AV5" s="1">
         <v>72</v>
       </c>
+      <c r="AW5" s="1">
+        <v>73</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4057,8 +4129,11 @@
       <c r="AV6" s="1">
         <v>5</v>
       </c>
+      <c r="AW6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4203,8 +4278,11 @@
       <c r="AV7" s="1">
         <v>36</v>
       </c>
+      <c r="AW7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4349,8 +4427,11 @@
       <c r="AV8" s="1">
         <v>20</v>
       </c>
+      <c r="AW8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4495,8 +4576,11 @@
       <c r="AV9" s="1">
         <v>5</v>
       </c>
+      <c r="AW9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4641,8 +4725,11 @@
       <c r="AV10" s="1">
         <v>0</v>
       </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4787,8 +4874,11 @@
       <c r="AV11" s="1">
         <v>2</v>
       </c>
+      <c r="AW11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4933,16 +5023,19 @@
       <c r="AV12" s="4">
         <v>142</v>
       </c>
+      <c r="AW12" s="4">
+        <v>145</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4954,30 +5047,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5122,8 +5216,11 @@
       <c r="AV3" s="6">
         <v>44012</v>
       </c>
+      <c r="AW3" s="6">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5268,8 +5365,11 @@
       <c r="AV4" s="1">
         <v>19</v>
       </c>
+      <c r="AW4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5414,8 +5514,11 @@
       <c r="AV5" s="1">
         <v>86</v>
       </c>
+      <c r="AW5" s="1">
+        <v>86</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5560,8 +5663,11 @@
       <c r="AV6" s="1">
         <v>11</v>
       </c>
+      <c r="AW6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5706,8 +5812,11 @@
       <c r="AV7" s="1">
         <v>113</v>
       </c>
+      <c r="AW7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5852,8 +5961,11 @@
       <c r="AV8" s="1">
         <v>71</v>
       </c>
+      <c r="AW8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5998,8 +6110,11 @@
       <c r="AV9" s="1">
         <v>6</v>
       </c>
+      <c r="AW9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6144,8 +6259,11 @@
       <c r="AV10" s="1">
         <v>2</v>
       </c>
+      <c r="AW10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6290,8 +6408,11 @@
       <c r="AV11" s="1">
         <v>1</v>
       </c>
+      <c r="AW11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6437,21 +6558,24 @@
       <c r="AV12" s="4">
         <v>309</v>
       </c>
+      <c r="AW12" s="4">
+        <v>309</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EFF920A1-DCB8-4BD6-B9A3-94921BD9024C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B2DACAA-C9A7-41F8-9519-65A8A7D8BD35}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,31 +442,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW3" sqref="AW3:AW12"/>
+      <selection pane="bottomRight" activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.71875" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="6.73046875" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -614,8 +614,11 @@
       <c r="AW3" s="6">
         <v>44013</v>
       </c>
+      <c r="AX3" s="6">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -763,8 +766,11 @@
       <c r="AW4" s="1">
         <v>12</v>
       </c>
+      <c r="AX4" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -912,8 +918,11 @@
       <c r="AW5" s="1">
         <v>91</v>
       </c>
+      <c r="AX5" s="1">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1070,11 @@
       <c r="AW6" s="1">
         <v>9</v>
       </c>
+      <c r="AX6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1210,8 +1222,11 @@
       <c r="AW7" s="1">
         <v>91</v>
       </c>
+      <c r="AX7" s="1">
+        <v>93</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1359,8 +1374,11 @@
       <c r="AW8" s="1">
         <v>27</v>
       </c>
+      <c r="AX8" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1508,8 +1526,11 @@
       <c r="AW9" s="1">
         <v>29</v>
       </c>
+      <c r="AX9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1657,8 +1678,11 @@
       <c r="AW10" s="1">
         <v>9</v>
       </c>
+      <c r="AX10" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1806,8 +1830,11 @@
       <c r="AW11" s="1">
         <v>7</v>
       </c>
+      <c r="AX11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1956,16 +1983,19 @@
       <c r="AW12" s="4">
         <v>275</v>
       </c>
+      <c r="AX12" s="4">
+        <v>287</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1978,31 +2008,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW4" sqref="AW4:AW12"/>
+      <selection pane="bottomRight" activeCell="AW4" sqref="AW4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.7578125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="6.73046875" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2150,8 +2180,11 @@
       <c r="AW3" s="6">
         <v>44013</v>
       </c>
+      <c r="AX3" s="6">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2299,8 +2332,11 @@
       <c r="AW4" s="1">
         <v>40</v>
       </c>
+      <c r="AX4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2448,8 +2484,11 @@
       <c r="AW5" s="1">
         <v>305</v>
       </c>
+      <c r="AX5" s="1">
+        <v>308</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2597,8 +2636,11 @@
       <c r="AW6" s="1">
         <v>17</v>
       </c>
+      <c r="AX6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2746,8 +2788,11 @@
       <c r="AW7" s="1">
         <v>255</v>
       </c>
+      <c r="AX7" s="1">
+        <v>261</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2895,8 +2940,11 @@
       <c r="AW8" s="1">
         <v>118</v>
       </c>
+      <c r="AX8" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3044,8 +3092,11 @@
       <c r="AW9" s="1">
         <v>13</v>
       </c>
+      <c r="AX9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3193,8 +3244,11 @@
       <c r="AW10" s="1">
         <v>15</v>
       </c>
+      <c r="AX10" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3342,8 +3396,11 @@
       <c r="AW11" s="1">
         <v>7</v>
       </c>
+      <c r="AX11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3492,16 +3549,19 @@
       <c r="AW12" s="4">
         <v>770</v>
       </c>
+      <c r="AX12" s="4">
+        <v>785</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3513,31 +3573,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW4" sqref="AW4:AW12"/>
+      <selection pane="bottomRight" activeCell="AX1" sqref="AX1:AX1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.078125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7.06640625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3685,8 +3745,11 @@
       <c r="AW3" s="6">
         <v>44013</v>
       </c>
+      <c r="AX3" s="6">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3834,8 +3897,11 @@
       <c r="AW4" s="1">
         <v>2</v>
       </c>
+      <c r="AX4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3983,8 +4049,11 @@
       <c r="AW5" s="1">
         <v>73</v>
       </c>
+      <c r="AX5" s="1">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4132,8 +4201,11 @@
       <c r="AW6" s="1">
         <v>5</v>
       </c>
+      <c r="AX6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4281,8 +4353,11 @@
       <c r="AW7" s="1">
         <v>38</v>
       </c>
+      <c r="AX7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4430,8 +4505,11 @@
       <c r="AW8" s="1">
         <v>20</v>
       </c>
+      <c r="AX8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4579,8 +4657,11 @@
       <c r="AW9" s="1">
         <v>5</v>
       </c>
+      <c r="AX9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4728,8 +4809,11 @@
       <c r="AW10" s="1">
         <v>0</v>
       </c>
+      <c r="AX10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4877,8 +4961,11 @@
       <c r="AW11" s="1">
         <v>2</v>
       </c>
+      <c r="AX11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5026,16 +5113,19 @@
       <c r="AW12" s="4">
         <v>145</v>
       </c>
+      <c r="AX12" s="4">
+        <v>147</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5047,31 +5137,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AW16"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5219,8 +5309,11 @@
       <c r="AW3" s="6">
         <v>44013</v>
       </c>
+      <c r="AX3" s="6">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5368,8 +5461,11 @@
       <c r="AW4" s="1">
         <v>19</v>
       </c>
+      <c r="AX4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5517,8 +5613,11 @@
       <c r="AW5" s="1">
         <v>86</v>
       </c>
+      <c r="AX5" s="1">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5666,8 +5765,11 @@
       <c r="AW6" s="1">
         <v>11</v>
       </c>
+      <c r="AX6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5815,8 +5917,11 @@
       <c r="AW7" s="1">
         <v>113</v>
       </c>
+      <c r="AX7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5964,8 +6069,11 @@
       <c r="AW8" s="1">
         <v>71</v>
       </c>
+      <c r="AX8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6113,8 +6221,11 @@
       <c r="AW9" s="1">
         <v>6</v>
       </c>
+      <c r="AX9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6262,8 +6373,11 @@
       <c r="AW10" s="1">
         <v>2</v>
       </c>
+      <c r="AX10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6411,8 +6525,11 @@
       <c r="AW11" s="1">
         <v>1</v>
       </c>
+      <c r="AX11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6561,21 +6678,24 @@
       <c r="AW12" s="4">
         <v>309</v>
       </c>
+      <c r="AX12" s="4">
+        <v>312</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B2DACAA-C9A7-41F8-9519-65A8A7D8BD35}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB23C0EE-C6A3-409F-99CD-D7D8AAC5FF88}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP7" sqref="AP7"/>
+      <selection pane="bottomRight" activeCell="AW4" sqref="AW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -457,16 +457,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="6.73046875" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="51" width="6.73046875" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -617,8 +617,11 @@
       <c r="AX3" s="6">
         <v>44014</v>
       </c>
+      <c r="AY3" s="6">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="AX4" s="1">
         <v>12</v>
       </c>
+      <c r="AY4" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -921,8 +927,11 @@
       <c r="AX5" s="1">
         <v>96</v>
       </c>
+      <c r="AY5" s="1">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1082,11 @@
       <c r="AX6" s="1">
         <v>10</v>
       </c>
+      <c r="AY6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1225,8 +1237,11 @@
       <c r="AX7" s="1">
         <v>93</v>
       </c>
+      <c r="AY7" s="1">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1377,8 +1392,11 @@
       <c r="AX8" s="1">
         <v>31</v>
       </c>
+      <c r="AY8" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1529,8 +1547,11 @@
       <c r="AX9" s="1">
         <v>29</v>
       </c>
+      <c r="AY9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1681,8 +1702,11 @@
       <c r="AX10" s="1">
         <v>9</v>
       </c>
+      <c r="AY10" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1833,8 +1857,11 @@
       <c r="AX11" s="1">
         <v>7</v>
       </c>
+      <c r="AY11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1986,16 +2013,20 @@
       <c r="AX12" s="4">
         <v>287</v>
       </c>
+      <c r="AY12" s="4">
+        <f>SUM(AY4:AY11)</f>
+        <v>292</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2008,13 +2039,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW4" sqref="AW4"/>
+      <selection pane="bottomRight" activeCell="AY1" sqref="AY1:AY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2023,16 +2054,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="6.73046875" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="51" width="6.73046875" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2183,8 +2214,11 @@
       <c r="AX3" s="6">
         <v>44014</v>
       </c>
+      <c r="AY3" s="6">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2335,8 +2369,11 @@
       <c r="AX4" s="1">
         <v>40</v>
       </c>
+      <c r="AY4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2487,8 +2524,11 @@
       <c r="AX5" s="1">
         <v>308</v>
       </c>
+      <c r="AY5" s="1">
+        <v>312</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2639,8 +2679,11 @@
       <c r="AX6" s="1">
         <v>17</v>
       </c>
+      <c r="AY6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2791,8 +2834,11 @@
       <c r="AX7" s="1">
         <v>261</v>
       </c>
+      <c r="AY7" s="1">
+        <v>272</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2943,8 +2989,11 @@
       <c r="AX8" s="1">
         <v>124</v>
       </c>
+      <c r="AY8" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3095,8 +3144,11 @@
       <c r="AX9" s="1">
         <v>13</v>
       </c>
+      <c r="AY9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3247,8 +3299,11 @@
       <c r="AX10" s="1">
         <v>15</v>
       </c>
+      <c r="AY10" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3399,8 +3454,11 @@
       <c r="AX11" s="1">
         <v>7</v>
       </c>
+      <c r="AY11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3552,16 +3610,19 @@
       <c r="AX12" s="4">
         <v>785</v>
       </c>
+      <c r="AY12" s="4">
+        <v>802</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3573,13 +3634,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX1" sqref="AX1:AX1048576"/>
+      <selection pane="bottomRight" activeCell="AY1" sqref="AY1:AY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3588,16 +3649,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="7.06640625" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="51" width="7.06640625" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3748,8 +3809,11 @@
       <c r="AX3" s="6">
         <v>44014</v>
       </c>
+      <c r="AY3" s="6">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3900,8 +3964,11 @@
       <c r="AX4" s="1">
         <v>2</v>
       </c>
+      <c r="AY4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4052,8 +4119,11 @@
       <c r="AX5" s="1">
         <v>75</v>
       </c>
+      <c r="AY5" s="1">
+        <v>76</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4204,8 +4274,11 @@
       <c r="AX6" s="1">
         <v>5</v>
       </c>
+      <c r="AY6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4356,8 +4429,11 @@
       <c r="AX7" s="1">
         <v>38</v>
       </c>
+      <c r="AY7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4508,8 +4584,11 @@
       <c r="AX8" s="1">
         <v>20</v>
       </c>
+      <c r="AY8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4660,8 +4739,11 @@
       <c r="AX9" s="1">
         <v>5</v>
       </c>
+      <c r="AY9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4812,8 +4894,11 @@
       <c r="AX10" s="1">
         <v>0</v>
       </c>
+      <c r="AY10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4964,8 +5049,11 @@
       <c r="AX11" s="1">
         <v>2</v>
       </c>
+      <c r="AY11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5116,16 +5204,19 @@
       <c r="AX12" s="4">
         <v>147</v>
       </c>
+      <c r="AY12" s="4">
+        <v>148</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5137,13 +5228,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AX16"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5152,16 +5243,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="7" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="51" width="7" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5312,8 +5403,11 @@
       <c r="AX3" s="6">
         <v>44014</v>
       </c>
+      <c r="AY3" s="6">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5464,8 +5558,11 @@
       <c r="AX4" s="1">
         <v>19</v>
       </c>
+      <c r="AY4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5616,8 +5713,11 @@
       <c r="AX5" s="1">
         <v>89</v>
       </c>
+      <c r="AY5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5768,8 +5868,11 @@
       <c r="AX6" s="1">
         <v>11</v>
       </c>
+      <c r="AY6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5920,8 +6023,11 @@
       <c r="AX7" s="1">
         <v>113</v>
       </c>
+      <c r="AY7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6072,8 +6178,11 @@
       <c r="AX8" s="1">
         <v>71</v>
       </c>
+      <c r="AY8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6224,8 +6333,11 @@
       <c r="AX9" s="1">
         <v>6</v>
       </c>
+      <c r="AY9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6376,8 +6488,11 @@
       <c r="AX10" s="1">
         <v>2</v>
       </c>
+      <c r="AY10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6528,8 +6643,11 @@
       <c r="AX11" s="1">
         <v>1</v>
       </c>
+      <c r="AY11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6681,21 +6799,25 @@
       <c r="AX12" s="4">
         <v>312</v>
       </c>
+      <c r="AY12" s="4">
+        <f>SUM(AY4:AY11)</f>
+        <v>318</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB23C0EE-C6A3-409F-99CD-D7D8AAC5FF88}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FBDB459-A0E5-485B-9718-8E0923251C22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW4" sqref="AW4"/>
+      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -457,16 +457,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="6.73046875" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="52" width="6.73046875" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -620,8 +620,11 @@
       <c r="AY3" s="6">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="6">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="AY4" s="1">
         <v>12</v>
       </c>
+      <c r="AZ4" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -930,8 +936,11 @@
       <c r="AY5" s="1">
         <v>97</v>
       </c>
+      <c r="AZ5" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1094,11 @@
       <c r="AY6" s="1">
         <v>10</v>
       </c>
+      <c r="AZ6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1240,8 +1252,11 @@
       <c r="AY7" s="1">
         <v>97</v>
       </c>
+      <c r="AZ7" s="1">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1395,8 +1410,11 @@
       <c r="AY8" s="1">
         <v>31</v>
       </c>
+      <c r="AZ8" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1550,8 +1568,11 @@
       <c r="AY9" s="1">
         <v>29</v>
       </c>
+      <c r="AZ9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1705,8 +1726,11 @@
       <c r="AY10" s="1">
         <v>9</v>
       </c>
+      <c r="AZ10" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1860,8 +1884,11 @@
       <c r="AY11" s="1">
         <v>7</v>
       </c>
+      <c r="AZ11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2017,16 +2044,19 @@
         <f>SUM(AY4:AY11)</f>
         <v>292</v>
       </c>
+      <c r="AZ12" s="4">
+        <v>305</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2039,13 +2069,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY1" sqref="AY1:AY1048576"/>
+      <selection pane="bottomRight" activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2054,16 +2084,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="6.73046875" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="52" width="6.73046875" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2217,8 +2247,11 @@
       <c r="AY3" s="6">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="6">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2372,8 +2405,11 @@
       <c r="AY4" s="1">
         <v>40</v>
       </c>
+      <c r="AZ4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2527,8 +2563,11 @@
       <c r="AY5" s="1">
         <v>312</v>
       </c>
+      <c r="AZ5" s="1">
+        <v>313</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2682,8 +2721,11 @@
       <c r="AY6" s="1">
         <v>17</v>
       </c>
+      <c r="AZ6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2837,8 +2879,11 @@
       <c r="AY7" s="1">
         <v>272</v>
       </c>
+      <c r="AZ7" s="1">
+        <v>285</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2992,8 +3037,11 @@
       <c r="AY8" s="1">
         <v>124</v>
       </c>
+      <c r="AZ8" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3147,8 +3195,11 @@
       <c r="AY9" s="1">
         <v>13</v>
       </c>
+      <c r="AZ9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3302,8 +3353,11 @@
       <c r="AY10" s="1">
         <v>17</v>
       </c>
+      <c r="AZ10" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3457,8 +3511,11 @@
       <c r="AY11" s="1">
         <v>7</v>
       </c>
+      <c r="AZ11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3613,16 +3670,19 @@
       <c r="AY12" s="4">
         <v>802</v>
       </c>
+      <c r="AZ12" s="4">
+        <v>816</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3634,13 +3694,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY1" sqref="AY1:AY1048576"/>
+      <selection pane="bottomRight" activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3649,16 +3709,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="7.06640625" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="52" width="7.06640625" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3812,8 +3872,11 @@
       <c r="AY3" s="6">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="6">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3967,8 +4030,11 @@
       <c r="AY4" s="1">
         <v>2</v>
       </c>
+      <c r="AZ4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4122,8 +4188,11 @@
       <c r="AY5" s="1">
         <v>76</v>
       </c>
+      <c r="AZ5" s="1">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4277,8 +4346,11 @@
       <c r="AY6" s="1">
         <v>5</v>
       </c>
+      <c r="AZ6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4432,8 +4504,11 @@
       <c r="AY7" s="1">
         <v>38</v>
       </c>
+      <c r="AZ7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4587,8 +4662,11 @@
       <c r="AY8" s="1">
         <v>20</v>
       </c>
+      <c r="AZ8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4742,8 +4820,11 @@
       <c r="AY9" s="1">
         <v>5</v>
       </c>
+      <c r="AZ9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4897,8 +4978,11 @@
       <c r="AY10" s="1">
         <v>0</v>
       </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5052,8 +5136,11 @@
       <c r="AY11" s="1">
         <v>2</v>
       </c>
+      <c r="AZ11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5207,16 +5294,19 @@
       <c r="AY12" s="4">
         <v>148</v>
       </c>
+      <c r="AZ12" s="4">
+        <v>149</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5228,13 +5318,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX5" sqref="AX5"/>
+      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5243,16 +5333,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="7" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="52" width="7" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5406,8 +5496,11 @@
       <c r="AY3" s="6">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="6">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5561,8 +5654,11 @@
       <c r="AY4" s="1">
         <v>19</v>
       </c>
+      <c r="AZ4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5716,8 +5812,11 @@
       <c r="AY5" s="1">
         <v>95</v>
       </c>
+      <c r="AZ5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5871,8 +5970,11 @@
       <c r="AY6" s="1">
         <v>11</v>
       </c>
+      <c r="AZ6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6026,8 +6128,11 @@
       <c r="AY7" s="1">
         <v>113</v>
       </c>
+      <c r="AZ7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6181,8 +6286,11 @@
       <c r="AY8" s="1">
         <v>71</v>
       </c>
+      <c r="AZ8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6336,8 +6444,11 @@
       <c r="AY9" s="1">
         <v>6</v>
       </c>
+      <c r="AZ9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6491,8 +6602,11 @@
       <c r="AY10" s="1">
         <v>2</v>
       </c>
+      <c r="AZ10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6646,8 +6760,11 @@
       <c r="AY11" s="1">
         <v>1</v>
       </c>
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6803,21 +6920,24 @@
         <f>SUM(AY4:AY11)</f>
         <v>318</v>
       </c>
+      <c r="AZ12" s="4">
+        <v>318</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FBDB459-A0E5-485B-9718-8E0923251C22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6981D21D-FE8C-4C49-AB2A-EEC4C1EB65DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AZ15"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -457,16 +457,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="6.73046875" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="53" width="6.73046875" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -623,8 +623,11 @@
       <c r="AZ3" s="6">
         <v>44016</v>
       </c>
+      <c r="BA3" s="6">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -781,8 +784,11 @@
       <c r="AZ4" s="1">
         <v>16</v>
       </c>
+      <c r="BA4" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -939,8 +945,11 @@
       <c r="AZ5" s="1">
         <v>99</v>
       </c>
+      <c r="BA5" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1097,8 +1106,11 @@
       <c r="AZ6" s="1">
         <v>10</v>
       </c>
+      <c r="BA6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1255,8 +1267,11 @@
       <c r="AZ7" s="1">
         <v>104</v>
       </c>
+      <c r="BA7" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1413,8 +1428,11 @@
       <c r="AZ8" s="1">
         <v>31</v>
       </c>
+      <c r="BA8" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1571,8 +1589,11 @@
       <c r="AZ9" s="1">
         <v>29</v>
       </c>
+      <c r="BA9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1729,8 +1750,11 @@
       <c r="AZ10" s="1">
         <v>9</v>
       </c>
+      <c r="BA10" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1887,8 +1911,11 @@
       <c r="AZ11" s="1">
         <v>7</v>
       </c>
+      <c r="BA11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2047,16 +2074,19 @@
       <c r="AZ12" s="4">
         <v>305</v>
       </c>
+      <c r="BA12" s="4">
+        <v>310</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2069,13 +2099,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AZ15"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ3" sqref="AZ3"/>
+      <selection pane="bottomRight" activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2084,16 +2114,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="6.73046875" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="53" width="6.73046875" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2250,8 +2280,11 @@
       <c r="AZ3" s="6">
         <v>44016</v>
       </c>
+      <c r="BA3" s="6">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2408,8 +2441,11 @@
       <c r="AZ4" s="1">
         <v>40</v>
       </c>
+      <c r="BA4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2566,8 +2602,11 @@
       <c r="AZ5" s="1">
         <v>313</v>
       </c>
+      <c r="BA5" s="1">
+        <v>317</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2724,8 +2763,11 @@
       <c r="AZ6" s="1">
         <v>17</v>
       </c>
+      <c r="BA6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2882,8 +2924,11 @@
       <c r="AZ7" s="1">
         <v>285</v>
       </c>
+      <c r="BA7" s="1">
+        <v>297</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3040,8 +3085,11 @@
       <c r="AZ8" s="1">
         <v>124</v>
       </c>
+      <c r="BA8" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3198,8 +3246,11 @@
       <c r="AZ9" s="1">
         <v>13</v>
       </c>
+      <c r="BA9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3356,8 +3407,11 @@
       <c r="AZ10" s="1">
         <v>17</v>
       </c>
+      <c r="BA10" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3514,8 +3568,11 @@
       <c r="AZ11" s="1">
         <v>7</v>
       </c>
+      <c r="BA11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3673,16 +3730,19 @@
       <c r="AZ12" s="4">
         <v>816</v>
       </c>
+      <c r="BA12" s="4">
+        <v>837</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3694,13 +3754,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AZ15"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY3" sqref="AY3"/>
+      <selection pane="bottomRight" activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3709,16 +3769,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="7.06640625" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="53" width="7.06640625" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3875,8 +3935,11 @@
       <c r="AZ3" s="6">
         <v>44016</v>
       </c>
+      <c r="BA3" s="6">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4033,8 +4096,11 @@
       <c r="AZ4" s="1">
         <v>2</v>
       </c>
+      <c r="BA4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4191,8 +4257,11 @@
       <c r="AZ5" s="1">
         <v>77</v>
       </c>
+      <c r="BA5" s="1">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4349,8 +4418,11 @@
       <c r="AZ6" s="1">
         <v>5</v>
       </c>
+      <c r="BA6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4507,8 +4579,11 @@
       <c r="AZ7" s="1">
         <v>38</v>
       </c>
+      <c r="BA7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4665,8 +4740,11 @@
       <c r="AZ8" s="1">
         <v>20</v>
       </c>
+      <c r="BA8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4823,8 +4901,11 @@
       <c r="AZ9" s="1">
         <v>5</v>
       </c>
+      <c r="BA9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4981,8 +5062,11 @@
       <c r="AZ10" s="1">
         <v>0</v>
       </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5139,8 +5223,11 @@
       <c r="AZ11" s="1">
         <v>2</v>
       </c>
+      <c r="BA11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5297,16 +5384,19 @@
       <c r="AZ12" s="4">
         <v>149</v>
       </c>
+      <c r="BA12" s="4">
+        <v>149</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5318,13 +5408,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AZ16"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
+      <selection pane="bottomRight" activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5333,16 +5423,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="7" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="53" width="7" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5499,8 +5589,11 @@
       <c r="AZ3" s="6">
         <v>44016</v>
       </c>
+      <c r="BA3" s="6">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5657,8 +5750,11 @@
       <c r="AZ4" s="1">
         <v>19</v>
       </c>
+      <c r="BA4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5815,8 +5911,11 @@
       <c r="AZ5" s="1">
         <v>95</v>
       </c>
+      <c r="BA5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5973,8 +6072,11 @@
       <c r="AZ6" s="1">
         <v>11</v>
       </c>
+      <c r="BA6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6131,8 +6233,11 @@
       <c r="AZ7" s="1">
         <v>113</v>
       </c>
+      <c r="BA7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6289,8 +6394,11 @@
       <c r="AZ8" s="1">
         <v>71</v>
       </c>
+      <c r="BA8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6447,8 +6555,11 @@
       <c r="AZ9" s="1">
         <v>6</v>
       </c>
+      <c r="BA9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6605,8 +6716,11 @@
       <c r="AZ10" s="1">
         <v>2</v>
       </c>
+      <c r="BA10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6763,8 +6877,11 @@
       <c r="AZ11" s="1">
         <v>1</v>
       </c>
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6923,21 +7040,24 @@
       <c r="AZ12" s="4">
         <v>318</v>
       </c>
+      <c r="BA12" s="4">
+        <v>318</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6981D21D-FE8C-4C49-AB2A-EEC4C1EB65DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2BE1BC2-FFB5-450D-AE40-15C95BD9E7A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -457,16 +457,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="6.73046875" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="54" width="6.73046875" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -626,8 +626,11 @@
       <c r="BA3" s="6">
         <v>44017</v>
       </c>
+      <c r="BB3" s="6">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -787,8 +790,11 @@
       <c r="BA4" s="1">
         <v>16</v>
       </c>
+      <c r="BB4" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -948,8 +954,11 @@
       <c r="BA5" s="1">
         <v>99</v>
       </c>
+      <c r="BB5" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,8 +1118,11 @@
       <c r="BA6" s="1">
         <v>10</v>
       </c>
+      <c r="BB6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1270,8 +1282,11 @@
       <c r="BA7" s="1">
         <v>106</v>
       </c>
+      <c r="BB7" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1431,8 +1446,11 @@
       <c r="BA8" s="1">
         <v>33</v>
       </c>
+      <c r="BB8" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1592,8 +1610,11 @@
       <c r="BA9" s="1">
         <v>29</v>
       </c>
+      <c r="BB9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1753,8 +1774,11 @@
       <c r="BA10" s="1">
         <v>10</v>
       </c>
+      <c r="BB10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1914,8 +1938,11 @@
       <c r="BA11" s="1">
         <v>7</v>
       </c>
+      <c r="BB11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2077,16 +2104,19 @@
       <c r="BA12" s="4">
         <v>310</v>
       </c>
+      <c r="BB12" s="4">
+        <v>313</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2099,13 +2129,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA3" sqref="BA3"/>
+      <selection pane="bottomRight" activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2114,16 +2144,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="6.73046875" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="54" width="6.73046875" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2283,8 +2313,11 @@
       <c r="BA3" s="6">
         <v>44017</v>
       </c>
+      <c r="BB3" s="6">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2444,8 +2477,11 @@
       <c r="BA4" s="1">
         <v>40</v>
       </c>
+      <c r="BB4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2605,8 +2641,11 @@
       <c r="BA5" s="1">
         <v>317</v>
       </c>
+      <c r="BB5" s="1">
+        <v>323</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2766,8 +2805,11 @@
       <c r="BA6" s="1">
         <v>17</v>
       </c>
+      <c r="BB6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2927,8 +2969,11 @@
       <c r="BA7" s="1">
         <v>297</v>
       </c>
+      <c r="BB7" s="1">
+        <v>300</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3088,8 +3133,11 @@
       <c r="BA8" s="1">
         <v>126</v>
       </c>
+      <c r="BB8" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3249,8 +3297,11 @@
       <c r="BA9" s="1">
         <v>13</v>
       </c>
+      <c r="BB9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3410,8 +3461,11 @@
       <c r="BA10" s="1">
         <v>20</v>
       </c>
+      <c r="BB10" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3571,8 +3625,11 @@
       <c r="BA11" s="1">
         <v>7</v>
       </c>
+      <c r="BB11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3733,16 +3790,19 @@
       <c r="BA12" s="4">
         <v>837</v>
       </c>
+      <c r="BB12" s="4">
+        <v>847</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3754,13 +3814,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA2" sqref="BA2"/>
+      <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3769,16 +3829,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="7.06640625" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="54" width="7.06640625" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3938,8 +3998,11 @@
       <c r="BA3" s="6">
         <v>44017</v>
       </c>
+      <c r="BB3" s="6">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4099,8 +4162,11 @@
       <c r="BA4" s="1">
         <v>2</v>
       </c>
+      <c r="BB4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4260,8 +4326,11 @@
       <c r="BA5" s="1">
         <v>77</v>
       </c>
+      <c r="BB5" s="1">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4421,8 +4490,11 @@
       <c r="BA6" s="1">
         <v>5</v>
       </c>
+      <c r="BB6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4582,8 +4654,11 @@
       <c r="BA7" s="1">
         <v>38</v>
       </c>
+      <c r="BB7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4743,8 +4818,11 @@
       <c r="BA8" s="1">
         <v>20</v>
       </c>
+      <c r="BB8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4904,8 +4982,11 @@
       <c r="BA9" s="1">
         <v>5</v>
       </c>
+      <c r="BB9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -5065,8 +5146,11 @@
       <c r="BA10" s="1">
         <v>0</v>
       </c>
+      <c r="BB10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5226,8 +5310,11 @@
       <c r="BA11" s="1">
         <v>2</v>
       </c>
+      <c r="BB11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5387,16 +5474,19 @@
       <c r="BA12" s="4">
         <v>149</v>
       </c>
+      <c r="BB12" s="4">
+        <v>151</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5408,13 +5498,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA3" sqref="BA3"/>
+      <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5423,16 +5513,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="7" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="54" width="7" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5592,8 +5682,11 @@
       <c r="BA3" s="6">
         <v>44017</v>
       </c>
+      <c r="BB3" s="6">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5753,8 +5846,11 @@
       <c r="BA4" s="1">
         <v>19</v>
       </c>
+      <c r="BB4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5914,8 +6010,11 @@
       <c r="BA5" s="1">
         <v>95</v>
       </c>
+      <c r="BB5" s="1">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6075,8 +6174,11 @@
       <c r="BA6" s="1">
         <v>11</v>
       </c>
+      <c r="BB6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6236,8 +6338,11 @@
       <c r="BA7" s="1">
         <v>113</v>
       </c>
+      <c r="BB7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6397,8 +6502,11 @@
       <c r="BA8" s="1">
         <v>71</v>
       </c>
+      <c r="BB8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6558,8 +6666,11 @@
       <c r="BA9" s="1">
         <v>6</v>
       </c>
+      <c r="BB9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6719,8 +6830,11 @@
       <c r="BA10" s="1">
         <v>2</v>
       </c>
+      <c r="BB10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6880,8 +6994,11 @@
       <c r="BA11" s="1">
         <v>1</v>
       </c>
+      <c r="BB11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7043,21 +7160,24 @@
       <c r="BA12" s="4">
         <v>318</v>
       </c>
+      <c r="BB12" s="4">
+        <v>319</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2BE1BC2-FFB5-450D-AE40-15C95BD9E7A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA8B3793-C3FF-45C6-8B66-13A4C13E71F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
+      <selection pane="bottomRight" activeCell="BA15" sqref="BA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -457,16 +457,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="54" width="6.73046875" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="55" width="6.73046875" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -629,8 +629,11 @@
       <c r="BB3" s="6">
         <v>44018</v>
       </c>
+      <c r="BC3" s="6">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -793,8 +796,11 @@
       <c r="BB4" s="1">
         <v>16</v>
       </c>
+      <c r="BC4" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -957,8 +963,11 @@
       <c r="BB5" s="1">
         <v>101</v>
       </c>
+      <c r="BC5" s="1">
+        <v>105</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1130,11 @@
       <c r="BB6" s="1">
         <v>10</v>
       </c>
+      <c r="BC6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1285,8 +1297,11 @@
       <c r="BB7" s="1">
         <v>106</v>
       </c>
+      <c r="BC7" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1449,8 +1464,11 @@
       <c r="BB8" s="1">
         <v>33</v>
       </c>
+      <c r="BC8" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1613,8 +1631,11 @@
       <c r="BB9" s="1">
         <v>29</v>
       </c>
+      <c r="BC9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1777,8 +1798,11 @@
       <c r="BB10" s="1">
         <v>11</v>
       </c>
+      <c r="BC10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1941,8 +1965,11 @@
       <c r="BB11" s="1">
         <v>7</v>
       </c>
+      <c r="BC11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2107,16 +2134,19 @@
       <c r="BB12" s="4">
         <v>313</v>
       </c>
+      <c r="BC12" s="4">
+        <v>323</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2129,13 +2159,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ9" sqref="AZ9"/>
+      <selection pane="bottomRight" activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2144,16 +2174,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="54" width="6.73046875" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="55" width="6.73046875" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2316,8 +2346,11 @@
       <c r="BB3" s="6">
         <v>44018</v>
       </c>
+      <c r="BC3" s="6">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2480,8 +2513,11 @@
       <c r="BB4" s="1">
         <v>40</v>
       </c>
+      <c r="BC4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2644,8 +2680,11 @@
       <c r="BB5" s="1">
         <v>323</v>
       </c>
+      <c r="BC5" s="1">
+        <v>335</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2808,8 +2847,11 @@
       <c r="BB6" s="1">
         <v>17</v>
       </c>
+      <c r="BC6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2972,8 +3014,11 @@
       <c r="BB7" s="1">
         <v>300</v>
       </c>
+      <c r="BC7" s="1">
+        <v>307</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3136,8 +3181,11 @@
       <c r="BB8" s="1">
         <v>126</v>
       </c>
+      <c r="BC8" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3300,8 +3348,11 @@
       <c r="BB9" s="1">
         <v>13</v>
       </c>
+      <c r="BC9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3464,8 +3515,11 @@
       <c r="BB10" s="1">
         <v>21</v>
       </c>
+      <c r="BC10" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3628,8 +3682,11 @@
       <c r="BB11" s="1">
         <v>7</v>
       </c>
+      <c r="BC11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3793,16 +3850,19 @@
       <c r="BB12" s="4">
         <v>847</v>
       </c>
+      <c r="BC12" s="4">
+        <v>867</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3814,13 +3874,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
+      <selection pane="bottomRight" activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3829,16 +3889,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="54" width="7.06640625" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="55" width="7.06640625" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -4001,8 +4061,11 @@
       <c r="BB3" s="6">
         <v>44018</v>
       </c>
+      <c r="BC3" s="6">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4165,8 +4228,11 @@
       <c r="BB4" s="1">
         <v>2</v>
       </c>
+      <c r="BC4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4329,8 +4395,11 @@
       <c r="BB5" s="1">
         <v>78</v>
       </c>
+      <c r="BC5" s="1">
+        <v>79</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4493,8 +4562,11 @@
       <c r="BB6" s="1">
         <v>5</v>
       </c>
+      <c r="BC6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4657,8 +4729,11 @@
       <c r="BB7" s="1">
         <v>38</v>
       </c>
+      <c r="BC7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4821,8 +4896,11 @@
       <c r="BB8" s="1">
         <v>20</v>
       </c>
+      <c r="BC8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4985,8 +5063,11 @@
       <c r="BB9" s="1">
         <v>5</v>
       </c>
+      <c r="BC9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -5149,8 +5230,11 @@
       <c r="BB10" s="1">
         <v>1</v>
       </c>
+      <c r="BC10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5313,8 +5397,11 @@
       <c r="BB11" s="1">
         <v>2</v>
       </c>
+      <c r="BC11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5477,16 +5564,19 @@
       <c r="BB12" s="4">
         <v>151</v>
       </c>
+      <c r="BC12" s="4">
+        <v>152</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5498,13 +5588,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BB16"/>
+  <dimension ref="A1:BC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
+      <selection pane="bottomRight" activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5513,16 +5603,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="54" width="7" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="55" width="7" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5685,8 +5775,11 @@
       <c r="BB3" s="6">
         <v>44018</v>
       </c>
+      <c r="BC3" s="6">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5849,8 +5942,11 @@
       <c r="BB4" s="1">
         <v>19</v>
       </c>
+      <c r="BC4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6013,8 +6109,11 @@
       <c r="BB5" s="1">
         <v>96</v>
       </c>
+      <c r="BC5" s="1">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6177,8 +6276,11 @@
       <c r="BB6" s="1">
         <v>11</v>
       </c>
+      <c r="BC6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6341,8 +6443,11 @@
       <c r="BB7" s="1">
         <v>113</v>
       </c>
+      <c r="BC7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6505,8 +6610,11 @@
       <c r="BB8" s="1">
         <v>71</v>
       </c>
+      <c r="BC8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6669,8 +6777,11 @@
       <c r="BB9" s="1">
         <v>6</v>
       </c>
+      <c r="BC9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6833,8 +6944,11 @@
       <c r="BB10" s="1">
         <v>2</v>
       </c>
+      <c r="BC10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6997,8 +7111,11 @@
       <c r="BB11" s="1">
         <v>1</v>
       </c>
+      <c r="BC11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7163,21 +7280,24 @@
       <c r="BB12" s="4">
         <v>319</v>
       </c>
+      <c r="BC12" s="4">
+        <v>320</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA8B3793-C3FF-45C6-8B66-13A4C13E71F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B06CDD0E-B511-4568-BA1B-A0CE29F22D4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA15" sqref="BA15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -457,16 +457,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="6.73046875" style="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="56" width="6.73046875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -632,8 +632,11 @@
       <c r="BC3" s="6">
         <v>44019</v>
       </c>
+      <c r="BD3" s="6">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -799,8 +802,11 @@
       <c r="BC4" s="1">
         <v>17</v>
       </c>
+      <c r="BD4" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -966,8 +972,11 @@
       <c r="BC5" s="1">
         <v>105</v>
       </c>
+      <c r="BD5" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1142,11 @@
       <c r="BC6" s="1">
         <v>10</v>
       </c>
+      <c r="BD6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1300,8 +1312,11 @@
       <c r="BC7" s="1">
         <v>111</v>
       </c>
+      <c r="BD7" s="1">
+        <v>114</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1467,8 +1482,11 @@
       <c r="BC8" s="1">
         <v>33</v>
       </c>
+      <c r="BD8" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1634,8 +1652,11 @@
       <c r="BC9" s="1">
         <v>29</v>
       </c>
+      <c r="BD9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1801,8 +1822,11 @@
       <c r="BC10" s="1">
         <v>11</v>
       </c>
+      <c r="BD10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1968,8 +1992,11 @@
       <c r="BC11" s="1">
         <v>7</v>
       </c>
+      <c r="BD11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2137,16 +2164,19 @@
       <c r="BC12" s="4">
         <v>323</v>
       </c>
+      <c r="BD12" s="4">
+        <v>327</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2159,13 +2189,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC1" sqref="BC1"/>
+      <selection pane="bottomRight" activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2174,16 +2204,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="6.73046875" style="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="56" width="6.73046875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2349,8 +2379,11 @@
       <c r="BC3" s="6">
         <v>44019</v>
       </c>
+      <c r="BD3" s="6">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2516,8 +2549,11 @@
       <c r="BC4" s="1">
         <v>40</v>
       </c>
+      <c r="BD4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2683,8 +2719,11 @@
       <c r="BC5" s="1">
         <v>335</v>
       </c>
+      <c r="BD5" s="1">
+        <v>333</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2850,8 +2889,11 @@
       <c r="BC6" s="1">
         <v>17</v>
       </c>
+      <c r="BD6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3017,8 +3059,11 @@
       <c r="BC7" s="1">
         <v>307</v>
       </c>
+      <c r="BD7" s="1">
+        <v>312</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3184,8 +3229,11 @@
       <c r="BC8" s="1">
         <v>126</v>
       </c>
+      <c r="BD8" s="1">
+        <v>128</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3351,8 +3399,11 @@
       <c r="BC9" s="1">
         <v>13</v>
       </c>
+      <c r="BD9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3518,8 +3569,11 @@
       <c r="BC10" s="1">
         <v>22</v>
       </c>
+      <c r="BD10" s="1">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3685,8 +3739,11 @@
       <c r="BC11" s="1">
         <v>7</v>
       </c>
+      <c r="BD11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3853,16 +3910,19 @@
       <c r="BC12" s="4">
         <v>867</v>
       </c>
+      <c r="BD12" s="4">
+        <v>909</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3874,13 +3934,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC17" sqref="BC17"/>
+      <selection pane="bottomRight" activeCell="BD17" sqref="BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3889,16 +3949,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="7.06640625" style="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="56" width="7.06640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -4064,8 +4124,11 @@
       <c r="BC3" s="6">
         <v>44019</v>
       </c>
+      <c r="BD3" s="6">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4231,8 +4294,11 @@
       <c r="BC4" s="1">
         <v>2</v>
       </c>
+      <c r="BD4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4398,8 +4464,11 @@
       <c r="BC5" s="1">
         <v>79</v>
       </c>
+      <c r="BD5" s="1">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4565,8 +4634,11 @@
       <c r="BC6" s="1">
         <v>5</v>
       </c>
+      <c r="BD6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4732,8 +4804,11 @@
       <c r="BC7" s="1">
         <v>38</v>
       </c>
+      <c r="BD7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4899,8 +4974,11 @@
       <c r="BC8" s="1">
         <v>20</v>
       </c>
+      <c r="BD8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5066,8 +5144,11 @@
       <c r="BC9" s="1">
         <v>5</v>
       </c>
+      <c r="BD9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -5233,8 +5314,11 @@
       <c r="BC10" s="1">
         <v>1</v>
       </c>
+      <c r="BD10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5400,8 +5484,11 @@
       <c r="BC11" s="1">
         <v>2</v>
       </c>
+      <c r="BD11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5567,16 +5654,19 @@
       <c r="BC12" s="4">
         <v>152</v>
       </c>
+      <c r="BD12" s="4">
+        <v>151</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5588,13 +5678,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BC16"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC3" sqref="BC3"/>
+      <selection pane="bottomRight" activeCell="BD1" sqref="BD1:BD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5603,16 +5693,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="7" style="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="56" width="7" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5778,8 +5868,11 @@
       <c r="BC3" s="6">
         <v>44019</v>
       </c>
+      <c r="BD3" s="6">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5945,8 +6038,11 @@
       <c r="BC4" s="1">
         <v>19</v>
       </c>
+      <c r="BD4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6112,8 +6208,11 @@
       <c r="BC5" s="1">
         <v>97</v>
       </c>
+      <c r="BD5" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6279,8 +6378,11 @@
       <c r="BC6" s="1">
         <v>11</v>
       </c>
+      <c r="BD6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6446,8 +6548,11 @@
       <c r="BC7" s="1">
         <v>113</v>
       </c>
+      <c r="BD7" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6613,8 +6718,11 @@
       <c r="BC8" s="1">
         <v>71</v>
       </c>
+      <c r="BD8" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6780,8 +6888,11 @@
       <c r="BC9" s="1">
         <v>6</v>
       </c>
+      <c r="BD9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6947,8 +7058,11 @@
       <c r="BC10" s="1">
         <v>2</v>
       </c>
+      <c r="BD10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7114,8 +7228,11 @@
       <c r="BC11" s="1">
         <v>1</v>
       </c>
+      <c r="BD11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7283,21 +7400,24 @@
       <c r="BC12" s="4">
         <v>320</v>
       </c>
+      <c r="BD12" s="4">
+        <v>329</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8545E071-AF6C-47DC-A64C-64C43218F5C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6C3D4A6-6364-4B09-A12C-7A9946FC7E22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -454,31 +454,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BE15"/>
+  <dimension ref="A1:BF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE3" sqref="BE3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1484375" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.75" style="1" customWidth="1"/>
+    <col min="58" max="58" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -650,8 +651,11 @@
       <c r="BE3" s="6">
         <v>44021</v>
       </c>
+      <c r="BF3" s="6">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -823,8 +827,11 @@
       <c r="BE4" s="1">
         <v>17</v>
       </c>
+      <c r="BF4" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -996,8 +1003,11 @@
       <c r="BE5" s="1">
         <v>110</v>
       </c>
+      <c r="BF5" s="1">
+        <v>114</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1169,8 +1179,11 @@
       <c r="BE6" s="1">
         <v>11</v>
       </c>
+      <c r="BF6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1342,8 +1355,11 @@
       <c r="BE7" s="1">
         <v>117</v>
       </c>
+      <c r="BF7" s="1">
+        <v>118</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1515,8 +1531,11 @@
       <c r="BE8" s="1">
         <v>35</v>
       </c>
+      <c r="BF8" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1688,8 +1707,11 @@
       <c r="BE9" s="1">
         <v>29</v>
       </c>
+      <c r="BF9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1861,8 +1883,11 @@
       <c r="BE10" s="1">
         <v>12</v>
       </c>
+      <c r="BF10" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2034,8 +2059,11 @@
       <c r="BE11" s="1">
         <v>7</v>
       </c>
+      <c r="BF11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2209,16 +2237,19 @@
       <c r="BE12" s="4">
         <v>338</v>
       </c>
+      <c r="BF12" s="4">
+        <v>344</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2231,31 +2262,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BE16"/>
+  <dimension ref="A1:BF16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE4" sqref="BE4"/>
+      <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.75" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2427,8 +2458,11 @@
       <c r="BE3" s="6">
         <v>44021</v>
       </c>
+      <c r="BF3" s="6">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2600,8 +2634,11 @@
       <c r="BE4" s="1">
         <v>40</v>
       </c>
+      <c r="BF4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2773,8 +2810,11 @@
       <c r="BE5" s="1">
         <v>363</v>
       </c>
+      <c r="BF5" s="1">
+        <v>364</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2946,8 +2986,11 @@
       <c r="BE6" s="1">
         <v>17</v>
       </c>
+      <c r="BF6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3119,8 +3162,11 @@
       <c r="BE7" s="1">
         <v>314</v>
       </c>
+      <c r="BF7" s="1">
+        <v>322</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3292,8 +3338,11 @@
       <c r="BE8" s="1">
         <v>139</v>
       </c>
+      <c r="BF8" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3465,8 +3514,11 @@
       <c r="BE9" s="1">
         <v>13</v>
       </c>
+      <c r="BF9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3638,8 +3690,11 @@
       <c r="BE10" s="1">
         <v>59</v>
       </c>
+      <c r="BF10" s="1">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3811,8 +3866,11 @@
       <c r="BE11" s="1">
         <v>7</v>
       </c>
+      <c r="BF11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -3985,21 +4043,24 @@
       <c r="BE12" s="4">
         <v>952</v>
       </c>
+      <c r="BF12" s="4">
+        <v>962</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4011,31 +4072,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BE15"/>
+  <dimension ref="A1:BF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG17" sqref="BG17"/>
+      <selection pane="bottomRight" activeCell="BF4" sqref="BF4:BF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.046875" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4207,8 +4268,11 @@
       <c r="BE3" s="6">
         <v>44021</v>
       </c>
+      <c r="BF3" s="6">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4380,8 +4444,11 @@
       <c r="BE4" s="1">
         <v>2</v>
       </c>
+      <c r="BF4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4553,8 +4620,11 @@
       <c r="BE5" s="1">
         <v>81</v>
       </c>
+      <c r="BF5" s="1">
+        <v>83</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4726,8 +4796,11 @@
       <c r="BE6" s="1">
         <v>5</v>
       </c>
+      <c r="BF6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4899,8 +4972,11 @@
       <c r="BE7" s="1">
         <v>39</v>
       </c>
+      <c r="BF7" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5072,8 +5148,11 @@
       <c r="BE8" s="1">
         <v>20</v>
       </c>
+      <c r="BF8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5245,8 +5324,11 @@
       <c r="BE9" s="1">
         <v>5</v>
       </c>
+      <c r="BF9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5418,8 +5500,11 @@
       <c r="BE10" s="1">
         <v>1</v>
       </c>
+      <c r="BF10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5591,8 +5676,11 @@
       <c r="BE11" s="1">
         <v>2</v>
       </c>
+      <c r="BF11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5764,16 +5852,19 @@
       <c r="BE12" s="4">
         <v>155</v>
       </c>
+      <c r="BF12" s="4">
+        <v>157</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5785,31 +5876,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BE17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE3" sqref="BE3"/>
+      <selection pane="bottomRight" activeCell="BF4" sqref="BF4:BF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5981,8 +6072,11 @@
       <c r="BE3" s="6">
         <v>44021</v>
       </c>
+      <c r="BF3" s="6">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6154,8 +6248,11 @@
       <c r="BE4" s="1">
         <v>19</v>
       </c>
+      <c r="BF4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6327,8 +6424,11 @@
       <c r="BE5" s="1">
         <v>130</v>
       </c>
+      <c r="BF5" s="1">
+        <v>133</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6500,8 +6600,11 @@
       <c r="BE6" s="1">
         <v>11</v>
       </c>
+      <c r="BF6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6673,8 +6776,11 @@
       <c r="BE7" s="1">
         <v>114</v>
       </c>
+      <c r="BF7" s="1">
+        <v>114</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6846,8 +6952,11 @@
       <c r="BE8" s="1">
         <v>74</v>
       </c>
+      <c r="BF8" s="1">
+        <v>74</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7019,8 +7128,11 @@
       <c r="BE9" s="1">
         <v>6</v>
       </c>
+      <c r="BF9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7192,8 +7304,11 @@
       <c r="BE10" s="1">
         <v>2</v>
       </c>
+      <c r="BF10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7365,8 +7480,11 @@
       <c r="BE11" s="1">
         <v>1</v>
       </c>
+      <c r="BF11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7540,26 +7658,29 @@
       <c r="BE12" s="4">
         <v>357</v>
       </c>
+      <c r="BF12" s="4">
+        <v>360</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6C3D4A6-6364-4B09-A12C-7A9946FC7E22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DC51ACA-DB2F-4543-AAD4-B90705CDAFA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BF15"/>
+  <dimension ref="A1:BG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BG4" sqref="BG4:BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -470,16 +470,16 @@
     <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.75" style="1" customWidth="1"/>
-    <col min="58" max="58" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.046875" style="1"/>
+    <col min="58" max="59" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -654,8 +654,11 @@
       <c r="BF3" s="6">
         <v>44022</v>
       </c>
+      <c r="BG3" s="6">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -830,8 +833,11 @@
       <c r="BF4" s="1">
         <v>17</v>
       </c>
+      <c r="BG4" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1012,11 @@
       <c r="BF5" s="1">
         <v>114</v>
       </c>
+      <c r="BG5" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1182,8 +1191,11 @@
       <c r="BF6" s="1">
         <v>12</v>
       </c>
+      <c r="BG6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1358,8 +1370,11 @@
       <c r="BF7" s="1">
         <v>118</v>
       </c>
+      <c r="BG7" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1534,8 +1549,11 @@
       <c r="BF8" s="1">
         <v>35</v>
       </c>
+      <c r="BG8" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1710,8 +1728,11 @@
       <c r="BF9" s="1">
         <v>29</v>
       </c>
+      <c r="BG9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1886,8 +1907,11 @@
       <c r="BF10" s="1">
         <v>12</v>
       </c>
+      <c r="BG10" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2062,8 +2086,11 @@
       <c r="BF11" s="1">
         <v>7</v>
       </c>
+      <c r="BG11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2240,16 +2267,19 @@
       <c r="BF12" s="4">
         <v>344</v>
       </c>
+      <c r="BG12" s="4">
+        <v>350</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2262,13 +2292,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BF16"/>
+  <dimension ref="A1:BG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
+      <selection pane="bottomRight" activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -2281,12 +2311,12 @@
     <col min="58" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2461,8 +2491,11 @@
       <c r="BF3" s="6">
         <v>44022</v>
       </c>
+      <c r="BG3" s="6">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2637,8 +2670,11 @@
       <c r="BF4" s="1">
         <v>40</v>
       </c>
+      <c r="BG4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2813,8 +2849,11 @@
       <c r="BF5" s="1">
         <v>364</v>
       </c>
+      <c r="BG5" s="1">
+        <v>384</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2989,8 +3028,11 @@
       <c r="BF6" s="1">
         <v>18</v>
       </c>
+      <c r="BG6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3165,8 +3207,11 @@
       <c r="BF7" s="1">
         <v>322</v>
       </c>
+      <c r="BG7" s="1">
+        <v>326</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3341,8 +3386,11 @@
       <c r="BF8" s="1">
         <v>139</v>
       </c>
+      <c r="BG8" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3517,8 +3565,11 @@
       <c r="BF9" s="1">
         <v>13</v>
       </c>
+      <c r="BG9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3693,8 +3744,11 @@
       <c r="BF10" s="1">
         <v>59</v>
       </c>
+      <c r="BG10" s="1">
+        <v>90</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3869,8 +3923,11 @@
       <c r="BF11" s="1">
         <v>7</v>
       </c>
+      <c r="BG11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4046,21 +4103,24 @@
       <c r="BF12" s="4">
         <v>962</v>
       </c>
+      <c r="BG12" s="4">
+        <v>1017</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4072,13 +4132,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BF15"/>
+  <dimension ref="A1:BG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF4" sqref="BF4:BF12"/>
+      <selection pane="bottomRight" activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -4088,15 +4148,16 @@
     <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.046875" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.046875" style="1"/>
+    <col min="58" max="59" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4271,8 +4332,11 @@
       <c r="BF3" s="6">
         <v>44022</v>
       </c>
+      <c r="BG3" s="6">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4447,8 +4511,11 @@
       <c r="BF4" s="1">
         <v>2</v>
       </c>
+      <c r="BG4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4623,8 +4690,11 @@
       <c r="BF5" s="1">
         <v>83</v>
       </c>
+      <c r="BG5" s="1">
+        <v>84</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4799,8 +4869,11 @@
       <c r="BF6" s="1">
         <v>5</v>
       </c>
+      <c r="BG6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4975,8 +5048,11 @@
       <c r="BF7" s="1">
         <v>39</v>
       </c>
+      <c r="BG7" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5151,8 +5227,11 @@
       <c r="BF8" s="1">
         <v>20</v>
       </c>
+      <c r="BG8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5327,8 +5406,11 @@
       <c r="BF9" s="1">
         <v>5</v>
       </c>
+      <c r="BG9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5503,8 +5585,11 @@
       <c r="BF10" s="1">
         <v>1</v>
       </c>
+      <c r="BG10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5679,8 +5764,11 @@
       <c r="BF11" s="1">
         <v>2</v>
       </c>
+      <c r="BG11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5855,16 +5943,19 @@
       <c r="BF12" s="4">
         <v>157</v>
       </c>
+      <c r="BG12" s="4">
+        <v>159</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5876,13 +5967,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BF17"/>
+  <dimension ref="A1:BG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF4" sqref="BF4:BF12"/>
+      <selection pane="bottomRight" activeCell="BG4" sqref="BG4:BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -5892,15 +5983,16 @@
     <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.046875" style="1"/>
+    <col min="58" max="59" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6075,8 +6167,11 @@
       <c r="BF3" s="6">
         <v>44022</v>
       </c>
+      <c r="BG3" s="6">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6251,8 +6346,11 @@
       <c r="BF4" s="1">
         <v>19</v>
       </c>
+      <c r="BG4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6427,8 +6525,11 @@
       <c r="BF5" s="1">
         <v>133</v>
       </c>
+      <c r="BG5" s="1">
+        <v>134</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6603,8 +6704,11 @@
       <c r="BF6" s="1">
         <v>11</v>
       </c>
+      <c r="BG6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6779,8 +6883,11 @@
       <c r="BF7" s="1">
         <v>114</v>
       </c>
+      <c r="BG7" s="1">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6955,8 +7062,11 @@
       <c r="BF8" s="1">
         <v>74</v>
       </c>
+      <c r="BG8" s="1">
+        <v>74</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7131,8 +7241,11 @@
       <c r="BF9" s="1">
         <v>6</v>
       </c>
+      <c r="BG9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7307,8 +7420,11 @@
       <c r="BF10" s="1">
         <v>2</v>
       </c>
+      <c r="BG10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7483,8 +7599,11 @@
       <c r="BF11" s="1">
         <v>1</v>
       </c>
+      <c r="BG11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7661,21 +7780,24 @@
       <c r="BF12" s="4">
         <v>360</v>
       </c>
+      <c r="BG12" s="4">
+        <v>364</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DC51ACA-DB2F-4543-AAD4-B90705CDAFA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F38776B9-BBF2-4CFF-A308-C5A2953FE0F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -454,32 +454,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BG15"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG4" sqref="BG4:BG12"/>
+      <selection pane="bottomRight" activeCell="AW11" sqref="AW11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.75" style="1" customWidth="1"/>
-    <col min="58" max="59" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="9.046875" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
+    <col min="58" max="60" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -657,8 +657,11 @@
       <c r="BG3" s="6">
         <v>44023</v>
       </c>
+      <c r="BH3" s="6">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -836,8 +839,11 @@
       <c r="BG4" s="1">
         <v>17</v>
       </c>
+      <c r="BH4" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +1021,11 @@
       <c r="BG5" s="1">
         <v>119</v>
       </c>
+      <c r="BH5" s="1">
+        <v>121</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1194,8 +1203,11 @@
       <c r="BG6" s="1">
         <v>12</v>
       </c>
+      <c r="BH6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1373,8 +1385,11 @@
       <c r="BG7" s="1">
         <v>119</v>
       </c>
+      <c r="BH7" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1552,8 +1567,11 @@
       <c r="BG8" s="1">
         <v>35</v>
       </c>
+      <c r="BH8" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1731,8 +1749,11 @@
       <c r="BG9" s="1">
         <v>29</v>
       </c>
+      <c r="BH9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1910,8 +1931,11 @@
       <c r="BG10" s="1">
         <v>12</v>
       </c>
+      <c r="BH10" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2089,8 +2113,11 @@
       <c r="BG11" s="1">
         <v>7</v>
       </c>
+      <c r="BH11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2270,16 +2297,19 @@
       <c r="BG12" s="4">
         <v>350</v>
       </c>
+      <c r="BH12" s="4">
+        <v>352</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2292,31 +2322,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BG16"/>
+  <dimension ref="A1:BH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH3" sqref="BH3"/>
+      <selection pane="bottomRight" activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.75" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.046875" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="60" width="6.73046875" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2494,8 +2524,11 @@
       <c r="BG3" s="6">
         <v>44023</v>
       </c>
+      <c r="BH3" s="6">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2673,8 +2706,11 @@
       <c r="BG4" s="1">
         <v>40</v>
       </c>
+      <c r="BH4" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2852,8 +2888,11 @@
       <c r="BG5" s="1">
         <v>384</v>
       </c>
+      <c r="BH5" s="1">
+        <v>387</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3031,8 +3070,11 @@
       <c r="BG6" s="1">
         <v>18</v>
       </c>
+      <c r="BH6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3210,8 +3252,11 @@
       <c r="BG7" s="1">
         <v>326</v>
       </c>
+      <c r="BH7" s="1">
+        <v>326</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3389,8 +3434,11 @@
       <c r="BG8" s="1">
         <v>139</v>
       </c>
+      <c r="BH8" s="1">
+        <v>149</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3568,8 +3616,11 @@
       <c r="BG9" s="1">
         <v>13</v>
       </c>
+      <c r="BH9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3747,8 +3798,11 @@
       <c r="BG10" s="1">
         <v>90</v>
       </c>
+      <c r="BH10" s="1">
+        <v>90</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3926,8 +3980,11 @@
       <c r="BG11" s="1">
         <v>7</v>
       </c>
+      <c r="BH11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4106,21 +4163,24 @@
       <c r="BG12" s="4">
         <v>1017</v>
       </c>
+      <c r="BH12" s="4">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4132,32 +4192,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BG15"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH3" sqref="BH3"/>
+      <selection pane="bottomRight" activeCell="BG17" sqref="BG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.046875" style="1" customWidth="1"/>
-    <col min="58" max="59" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="9.046875" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
+    <col min="58" max="60" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4335,8 +4395,11 @@
       <c r="BG3" s="6">
         <v>44023</v>
       </c>
+      <c r="BH3" s="6">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4514,8 +4577,11 @@
       <c r="BG4" s="1">
         <v>2</v>
       </c>
+      <c r="BH4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4693,8 +4759,11 @@
       <c r="BG5" s="1">
         <v>84</v>
       </c>
+      <c r="BH5" s="1">
+        <v>85</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4872,8 +4941,11 @@
       <c r="BG6" s="1">
         <v>5</v>
       </c>
+      <c r="BH6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5051,8 +5123,11 @@
       <c r="BG7" s="1">
         <v>40</v>
       </c>
+      <c r="BH7" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5230,8 +5305,11 @@
       <c r="BG8" s="1">
         <v>20</v>
       </c>
+      <c r="BH8" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5409,8 +5487,11 @@
       <c r="BG9" s="1">
         <v>5</v>
       </c>
+      <c r="BH9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5588,8 +5669,11 @@
       <c r="BG10" s="1">
         <v>1</v>
       </c>
+      <c r="BH10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5767,8 +5851,11 @@
       <c r="BG11" s="1">
         <v>2</v>
       </c>
+      <c r="BH11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5946,16 +6033,19 @@
       <c r="BG12" s="4">
         <v>159</v>
       </c>
+      <c r="BH12" s="4">
+        <v>160</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5967,32 +6057,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BG17"/>
+  <dimension ref="A1:BH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG4" sqref="BG4:BG12"/>
+      <selection pane="bottomRight" activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="59" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="9.046875" style="1"/>
+    <col min="58" max="60" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6170,8 +6260,11 @@
       <c r="BG3" s="6">
         <v>44023</v>
       </c>
+      <c r="BH3" s="6">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6349,8 +6442,11 @@
       <c r="BG4" s="1">
         <v>19</v>
       </c>
+      <c r="BH4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6528,8 +6624,11 @@
       <c r="BG5" s="1">
         <v>134</v>
       </c>
+      <c r="BH5" s="1">
+        <v>134</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6707,8 +6806,11 @@
       <c r="BG6" s="1">
         <v>11</v>
       </c>
+      <c r="BH6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6886,8 +6988,11 @@
       <c r="BG7" s="1">
         <v>116</v>
       </c>
+      <c r="BH7" s="1">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7065,8 +7170,11 @@
       <c r="BG8" s="1">
         <v>74</v>
       </c>
+      <c r="BH8" s="1">
+        <v>75</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7244,8 +7352,11 @@
       <c r="BG9" s="1">
         <v>6</v>
       </c>
+      <c r="BH9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7423,8 +7534,11 @@
       <c r="BG10" s="1">
         <v>3</v>
       </c>
+      <c r="BH10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7602,8 +7716,11 @@
       <c r="BG11" s="1">
         <v>1</v>
       </c>
+      <c r="BH11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7783,26 +7900,29 @@
       <c r="BG12" s="4">
         <v>364</v>
       </c>
+      <c r="BH12" s="4">
+        <v>365</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F38776B9-BBF2-4CFF-A308-C5A2953FE0F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B25BE687-D36D-4432-9B6A-F05C18158D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW11" sqref="AW11"/>
+      <selection pane="bottomRight" activeCell="BI4" sqref="BI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -470,16 +470,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="60" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -660,8 +660,11 @@
       <c r="BH3" s="6">
         <v>44024</v>
       </c>
+      <c r="BI3" s="6">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -842,8 +845,11 @@
       <c r="BH4" s="1">
         <v>17</v>
       </c>
+      <c r="BI4" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1024,8 +1030,11 @@
       <c r="BH5" s="1">
         <v>121</v>
       </c>
+      <c r="BI5" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +1215,11 @@
       <c r="BH6" s="1">
         <v>12</v>
       </c>
+      <c r="BI6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1388,8 +1400,11 @@
       <c r="BH7" s="1">
         <v>119</v>
       </c>
+      <c r="BI7" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1570,8 +1585,11 @@
       <c r="BH8" s="1">
         <v>35</v>
       </c>
+      <c r="BI8" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1752,8 +1770,11 @@
       <c r="BH9" s="1">
         <v>29</v>
       </c>
+      <c r="BI9" s="1">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1934,8 +1955,11 @@
       <c r="BH10" s="1">
         <v>12</v>
       </c>
+      <c r="BI10" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2116,8 +2140,11 @@
       <c r="BH11" s="1">
         <v>7</v>
       </c>
+      <c r="BI11" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2300,16 +2327,19 @@
       <c r="BH12" s="4">
         <v>352</v>
       </c>
+      <c r="BI12" s="4">
+        <v>379</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2322,13 +2352,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BH16"/>
+  <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH1" sqref="BH1"/>
+      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2337,16 +2367,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="60" width="6.73046875" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="61" width="6.73046875" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2527,8 +2557,11 @@
       <c r="BH3" s="6">
         <v>44024</v>
       </c>
+      <c r="BI3" s="6">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2709,8 +2742,11 @@
       <c r="BH4" s="1">
         <v>40</v>
       </c>
+      <c r="BI4" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2891,8 +2927,11 @@
       <c r="BH5" s="1">
         <v>387</v>
       </c>
+      <c r="BI5" s="1">
+        <v>387</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3073,8 +3112,11 @@
       <c r="BH6" s="1">
         <v>18</v>
       </c>
+      <c r="BI6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3255,8 +3297,11 @@
       <c r="BH7" s="1">
         <v>326</v>
       </c>
+      <c r="BI7" s="1">
+        <v>335</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3437,8 +3482,11 @@
       <c r="BH8" s="1">
         <v>149</v>
       </c>
+      <c r="BI8" s="1">
+        <v>167</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3619,8 +3667,11 @@
       <c r="BH9" s="1">
         <v>13</v>
       </c>
+      <c r="BI9" s="1">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3801,8 +3852,11 @@
       <c r="BH10" s="1">
         <v>90</v>
       </c>
+      <c r="BI10" s="1">
+        <v>92</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3983,8 +4037,11 @@
       <c r="BH11" s="1">
         <v>7</v>
       </c>
+      <c r="BI11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4166,21 +4223,24 @@
       <c r="BH12" s="4">
         <v>1030</v>
       </c>
+      <c r="BI12" s="4">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4192,13 +4252,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG17" sqref="BG17"/>
+      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4208,16 +4268,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
-    <col min="58" max="60" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4398,8 +4458,11 @@
       <c r="BH3" s="6">
         <v>44024</v>
       </c>
+      <c r="BI3" s="6">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4580,8 +4643,11 @@
       <c r="BH4" s="1">
         <v>2</v>
       </c>
+      <c r="BI4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4762,8 +4828,11 @@
       <c r="BH5" s="1">
         <v>85</v>
       </c>
+      <c r="BI5" s="1">
+        <v>85</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4944,8 +5013,11 @@
       <c r="BH6" s="1">
         <v>5</v>
       </c>
+      <c r="BI6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5126,8 +5198,11 @@
       <c r="BH7" s="1">
         <v>40</v>
       </c>
+      <c r="BI7" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5308,8 +5383,11 @@
       <c r="BH8" s="1">
         <v>20</v>
       </c>
+      <c r="BI8" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5490,8 +5568,11 @@
       <c r="BH9" s="1">
         <v>5</v>
       </c>
+      <c r="BI9" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5672,8 +5753,11 @@
       <c r="BH10" s="1">
         <v>1</v>
       </c>
+      <c r="BI10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5854,8 +5938,11 @@
       <c r="BH11" s="1">
         <v>2</v>
       </c>
+      <c r="BI11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6036,16 +6123,19 @@
       <c r="BH12" s="4">
         <v>160</v>
       </c>
+      <c r="BI12" s="4">
+        <v>167</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6057,13 +6147,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BH17"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG3" sqref="BG3"/>
+      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6073,16 +6163,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="60" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6263,8 +6353,11 @@
       <c r="BH3" s="6">
         <v>44024</v>
       </c>
+      <c r="BI3" s="6">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6445,8 +6538,11 @@
       <c r="BH4" s="1">
         <v>19</v>
       </c>
+      <c r="BI4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6627,8 +6723,11 @@
       <c r="BH5" s="1">
         <v>134</v>
       </c>
+      <c r="BI5" s="1">
+        <v>137</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6809,8 +6908,11 @@
       <c r="BH6" s="1">
         <v>11</v>
       </c>
+      <c r="BI6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6991,8 +7093,11 @@
       <c r="BH7" s="1">
         <v>116</v>
       </c>
+      <c r="BI7" s="1">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7173,8 +7278,11 @@
       <c r="BH8" s="1">
         <v>75</v>
       </c>
+      <c r="BI8" s="1">
+        <v>76</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7355,8 +7463,11 @@
       <c r="BH9" s="1">
         <v>6</v>
       </c>
+      <c r="BI9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7537,8 +7648,11 @@
       <c r="BH10" s="1">
         <v>3</v>
       </c>
+      <c r="BI10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7719,8 +7833,11 @@
       <c r="BH11" s="1">
         <v>1</v>
       </c>
+      <c r="BI11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7903,21 +8020,24 @@
       <c r="BH12" s="4">
         <v>365</v>
       </c>
+      <c r="BI12" s="4">
+        <v>372</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B25BE687-D36D-4432-9B6A-F05C18158D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B88BDF08-9F1C-498A-9DE3-D0E744250C15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -454,32 +454,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BI15"/>
+  <dimension ref="A1:BJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI4" sqref="BI4"/>
+      <selection pane="bottomRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.71875" style="1" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="1"/>
+    <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -663,8 +663,11 @@
       <c r="BI3" s="6">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="6">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -848,8 +851,11 @@
       <c r="BI4" s="1">
         <v>17</v>
       </c>
+      <c r="BJ4" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1039,11 @@
       <c r="BI5" s="1">
         <v>123</v>
       </c>
+      <c r="BJ5" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1218,8 +1227,11 @@
       <c r="BI6" s="1">
         <v>13</v>
       </c>
+      <c r="BJ6" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1403,8 +1415,11 @@
       <c r="BI7" s="1">
         <v>119</v>
       </c>
+      <c r="BJ7" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1588,8 +1603,11 @@
       <c r="BI8" s="1">
         <v>35</v>
       </c>
+      <c r="BJ8" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1773,8 +1791,11 @@
       <c r="BI9" s="1">
         <v>49</v>
       </c>
+      <c r="BJ9" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1958,8 +1979,11 @@
       <c r="BI10" s="1">
         <v>13</v>
       </c>
+      <c r="BJ10" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2143,8 +2167,11 @@
       <c r="BI11" s="1">
         <v>10</v>
       </c>
+      <c r="BJ11" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2330,16 +2357,19 @@
       <c r="BI12" s="4">
         <v>379</v>
       </c>
+      <c r="BJ12" s="4">
+        <v>386</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2352,31 +2382,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BI16"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
+      <selection pane="bottomRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="61" width="6.73046875" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="61" width="6.71875" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2560,8 +2590,11 @@
       <c r="BI3" s="6">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="6">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2745,8 +2778,11 @@
       <c r="BI4" s="1">
         <v>41</v>
       </c>
+      <c r="BJ4" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2930,8 +2966,11 @@
       <c r="BI5" s="1">
         <v>387</v>
       </c>
+      <c r="BJ5" s="1">
+        <v>387</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3115,8 +3154,11 @@
       <c r="BI6" s="1">
         <v>18</v>
       </c>
+      <c r="BJ6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3300,8 +3342,11 @@
       <c r="BI7" s="1">
         <v>335</v>
       </c>
+      <c r="BJ7" s="1">
+        <v>388</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3485,8 +3530,11 @@
       <c r="BI8" s="1">
         <v>167</v>
       </c>
+      <c r="BJ8" s="1">
+        <v>167</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3670,8 +3718,11 @@
       <c r="BI9" s="1">
         <v>51</v>
       </c>
+      <c r="BJ9" s="1">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3855,8 +3906,11 @@
       <c r="BI10" s="1">
         <v>92</v>
       </c>
+      <c r="BJ10" s="1">
+        <v>92</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4040,8 +4094,11 @@
       <c r="BI11" s="1">
         <v>11</v>
       </c>
+      <c r="BJ11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4226,21 +4283,24 @@
       <c r="BI12" s="4">
         <v>1102</v>
       </c>
+      <c r="BJ12" s="4">
+        <v>1163</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4252,32 +4312,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BI15"/>
+  <dimension ref="A1:BJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
+      <selection pane="bottomRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.078125" style="1" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="1"/>
+    <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4461,8 +4521,11 @@
       <c r="BI3" s="6">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="6">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4646,8 +4709,11 @@
       <c r="BI4" s="1">
         <v>2</v>
       </c>
+      <c r="BJ4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4831,8 +4897,11 @@
       <c r="BI5" s="1">
         <v>85</v>
       </c>
+      <c r="BJ5" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5016,8 +5085,11 @@
       <c r="BI6" s="1">
         <v>5</v>
       </c>
+      <c r="BJ6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5201,8 +5273,11 @@
       <c r="BI7" s="1">
         <v>41</v>
       </c>
+      <c r="BJ7" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5386,8 +5461,11 @@
       <c r="BI8" s="1">
         <v>21</v>
       </c>
+      <c r="BJ8" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5571,8 +5649,11 @@
       <c r="BI9" s="1">
         <v>8</v>
       </c>
+      <c r="BJ9" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5756,8 +5837,11 @@
       <c r="BI10" s="1">
         <v>2</v>
       </c>
+      <c r="BJ10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -5941,8 +6025,11 @@
       <c r="BI11" s="1">
         <v>3</v>
       </c>
+      <c r="BJ11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6126,16 +6213,19 @@
       <c r="BI12" s="4">
         <v>167</v>
       </c>
+      <c r="BJ12" s="4">
+        <v>173</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6147,32 +6237,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BI17"/>
+  <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
+      <selection pane="bottomRight" activeCell="BJ12" sqref="BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="1"/>
+    <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6356,8 +6446,11 @@
       <c r="BI3" s="6">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="6">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6541,8 +6634,11 @@
       <c r="BI4" s="1">
         <v>19</v>
       </c>
+      <c r="BJ4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6726,8 +6822,11 @@
       <c r="BI5" s="1">
         <v>137</v>
       </c>
+      <c r="BJ5" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6911,8 +7010,11 @@
       <c r="BI6" s="1">
         <v>11</v>
       </c>
+      <c r="BJ6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7096,8 +7198,11 @@
       <c r="BI7" s="1">
         <v>116</v>
       </c>
+      <c r="BJ7" s="1">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7281,8 +7386,11 @@
       <c r="BI8" s="1">
         <v>76</v>
       </c>
+      <c r="BJ8" s="1">
+        <v>76</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7466,8 +7574,11 @@
       <c r="BI9" s="1">
         <v>6</v>
       </c>
+      <c r="BJ9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7651,8 +7762,11 @@
       <c r="BI10" s="1">
         <v>3</v>
       </c>
+      <c r="BJ10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7836,8 +7950,11 @@
       <c r="BI11" s="1">
         <v>4</v>
       </c>
+      <c r="BJ11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8023,26 +8140,29 @@
       <c r="BI12" s="4">
         <v>372</v>
       </c>
+      <c r="BJ12" s="4">
+        <v>374</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B88BDF08-9F1C-498A-9DE3-D0E744250C15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F9D044C-CCC4-4472-97C4-495EA282196F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -454,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BJ15"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
+      <selection pane="bottomRight" activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -474,12 +474,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -666,8 +666,11 @@
       <c r="BJ3" s="6">
         <v>44026</v>
       </c>
+      <c r="BK3" s="6">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -854,8 +857,11 @@
       <c r="BJ4" s="1">
         <v>18</v>
       </c>
+      <c r="BK4" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1042,8 +1048,11 @@
       <c r="BJ5" s="1">
         <v>126</v>
       </c>
+      <c r="BK5" s="1">
+        <v>128</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,8 +1239,11 @@
       <c r="BJ6" s="1">
         <v>14</v>
       </c>
+      <c r="BK6" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1418,8 +1430,11 @@
       <c r="BJ7" s="1">
         <v>119</v>
       </c>
+      <c r="BK7" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1606,8 +1621,11 @@
       <c r="BJ8" s="1">
         <v>36</v>
       </c>
+      <c r="BK8" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1794,8 +1812,11 @@
       <c r="BJ9" s="1">
         <v>50</v>
       </c>
+      <c r="BK9" s="1">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1982,8 +2003,11 @@
       <c r="BJ10" s="1">
         <v>13</v>
       </c>
+      <c r="BK10" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2170,8 +2194,11 @@
       <c r="BJ11" s="1">
         <v>10</v>
       </c>
+      <c r="BK11" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2360,16 +2387,19 @@
       <c r="BJ12" s="4">
         <v>386</v>
       </c>
+      <c r="BK12" s="4">
+        <v>396</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2382,13 +2412,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BJ16"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
+      <selection pane="bottomRight" activeCell="AW22" sqref="AW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -2401,12 +2431,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2593,8 +2623,11 @@
       <c r="BJ3" s="6">
         <v>44026</v>
       </c>
+      <c r="BK3" s="6">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2781,8 +2814,11 @@
       <c r="BJ4" s="1">
         <v>41</v>
       </c>
+      <c r="BK4" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2969,8 +3005,11 @@
       <c r="BJ5" s="1">
         <v>387</v>
       </c>
+      <c r="BK5" s="1">
+        <v>388</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3157,8 +3196,11 @@
       <c r="BJ6" s="1">
         <v>18</v>
       </c>
+      <c r="BK6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3345,8 +3387,11 @@
       <c r="BJ7" s="1">
         <v>388</v>
       </c>
+      <c r="BK7" s="1">
+        <v>399</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3533,8 +3578,11 @@
       <c r="BJ8" s="1">
         <v>167</v>
       </c>
+      <c r="BK8" s="1">
+        <v>176</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3721,8 +3769,11 @@
       <c r="BJ9" s="1">
         <v>59</v>
       </c>
+      <c r="BK9" s="1">
+        <v>62</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3909,8 +3960,11 @@
       <c r="BJ10" s="1">
         <v>92</v>
       </c>
+      <c r="BK10" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4097,8 +4151,11 @@
       <c r="BJ11" s="1">
         <v>11</v>
       </c>
+      <c r="BK11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4286,21 +4343,24 @@
       <c r="BJ12" s="4">
         <v>1163</v>
       </c>
+      <c r="BK12" s="4">
+        <v>1190</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4312,13 +4372,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BJ15"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
+      <selection pane="bottomRight" activeCell="BE23" sqref="BE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -4332,12 +4392,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4524,8 +4584,11 @@
       <c r="BJ3" s="6">
         <v>44026</v>
       </c>
+      <c r="BK3" s="6">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4712,8 +4775,11 @@
       <c r="BJ4" s="1">
         <v>2</v>
       </c>
+      <c r="BK4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4900,8 +4966,11 @@
       <c r="BJ5" s="1">
         <v>87</v>
       </c>
+      <c r="BK5" s="1">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5088,8 +5157,11 @@
       <c r="BJ6" s="1">
         <v>5</v>
       </c>
+      <c r="BK6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5276,8 +5348,11 @@
       <c r="BJ7" s="1">
         <v>43</v>
       </c>
+      <c r="BK7" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5464,8 +5539,11 @@
       <c r="BJ8" s="1">
         <v>21</v>
       </c>
+      <c r="BK8" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5652,8 +5730,11 @@
       <c r="BJ9" s="1">
         <v>9</v>
       </c>
+      <c r="BK9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5840,8 +5921,11 @@
       <c r="BJ10" s="1">
         <v>3</v>
       </c>
+      <c r="BK10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6028,8 +6112,11 @@
       <c r="BJ11" s="1">
         <v>3</v>
       </c>
+      <c r="BK11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6216,16 +6303,19 @@
       <c r="BJ12" s="4">
         <v>173</v>
       </c>
+      <c r="BK12" s="4">
+        <v>179</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6237,13 +6327,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BJ17"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ12" sqref="BJ12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -6257,12 +6347,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6449,8 +6539,11 @@
       <c r="BJ3" s="6">
         <v>44026</v>
       </c>
+      <c r="BK3" s="6">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6637,8 +6730,11 @@
       <c r="BJ4" s="1">
         <v>19</v>
       </c>
+      <c r="BK4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6825,8 +6921,11 @@
       <c r="BJ5" s="1">
         <v>139</v>
       </c>
+      <c r="BK5" s="1">
+        <v>147</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7013,8 +7112,11 @@
       <c r="BJ6" s="1">
         <v>11</v>
       </c>
+      <c r="BK6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7201,8 +7303,11 @@
       <c r="BJ7" s="1">
         <v>116</v>
       </c>
+      <c r="BK7" s="1">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7389,8 +7494,11 @@
       <c r="BJ8" s="1">
         <v>76</v>
       </c>
+      <c r="BK8" s="1">
+        <v>76</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7577,8 +7685,11 @@
       <c r="BJ9" s="1">
         <v>6</v>
       </c>
+      <c r="BK9" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7765,8 +7876,11 @@
       <c r="BJ10" s="1">
         <v>3</v>
       </c>
+      <c r="BK10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7953,8 +8067,11 @@
       <c r="BJ11" s="1">
         <v>4</v>
       </c>
+      <c r="BK11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8143,21 +8260,24 @@
       <c r="BJ12" s="4">
         <v>374</v>
       </c>
+      <c r="BK12" s="4">
+        <v>383</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F9D044C-CCC4-4472-97C4-495EA282196F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7604A041-4C63-4C30-AC0B-9D65967F211E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -454,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BK12" sqref="BK12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -474,12 +474,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -669,8 +669,11 @@
       <c r="BK3" s="6">
         <v>44027</v>
       </c>
+      <c r="BL3" s="6">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -860,8 +863,11 @@
       <c r="BK4" s="1">
         <v>18</v>
       </c>
+      <c r="BL4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1051,8 +1057,11 @@
       <c r="BK5" s="1">
         <v>128</v>
       </c>
+      <c r="BL5" s="1">
+        <v>130</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1242,8 +1251,11 @@
       <c r="BK6" s="1">
         <v>16</v>
       </c>
+      <c r="BL6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1433,8 +1445,11 @@
       <c r="BK7" s="1">
         <v>122</v>
       </c>
+      <c r="BL7" s="1">
+        <v>127</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1624,8 +1639,11 @@
       <c r="BK8" s="1">
         <v>38</v>
       </c>
+      <c r="BL8" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1815,8 +1833,11 @@
       <c r="BK9" s="1">
         <v>51</v>
       </c>
+      <c r="BL9" s="1">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2006,8 +2027,11 @@
       <c r="BK10" s="1">
         <v>13</v>
       </c>
+      <c r="BL10" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2197,8 +2221,11 @@
       <c r="BK11" s="1">
         <v>10</v>
       </c>
+      <c r="BL11" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2390,16 +2417,19 @@
       <c r="BK12" s="4">
         <v>396</v>
       </c>
+      <c r="BL12" s="4">
+        <v>408</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2412,13 +2442,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW22" sqref="AW22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -2431,12 +2461,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2626,8 +2656,11 @@
       <c r="BK3" s="6">
         <v>44027</v>
       </c>
+      <c r="BL3" s="6">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2817,8 +2850,11 @@
       <c r="BK4" s="1">
         <v>41</v>
       </c>
+      <c r="BL4" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3008,8 +3044,11 @@
       <c r="BK5" s="1">
         <v>388</v>
       </c>
+      <c r="BL5" s="1">
+        <v>394</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3199,8 +3238,11 @@
       <c r="BK6" s="1">
         <v>18</v>
       </c>
+      <c r="BL6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3390,8 +3432,11 @@
       <c r="BK7" s="1">
         <v>399</v>
       </c>
+      <c r="BL7" s="1">
+        <v>415</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3581,8 +3626,11 @@
       <c r="BK8" s="1">
         <v>176</v>
       </c>
+      <c r="BL8" s="1">
+        <v>183</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3772,8 +3820,11 @@
       <c r="BK9" s="1">
         <v>62</v>
       </c>
+      <c r="BL9" s="1">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3963,8 +4014,11 @@
       <c r="BK10" s="1">
         <v>95</v>
       </c>
+      <c r="BL10" s="1">
+        <v>104</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4154,8 +4208,11 @@
       <c r="BK11" s="1">
         <v>11</v>
       </c>
+      <c r="BL11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4346,21 +4403,24 @@
       <c r="BK12" s="4">
         <v>1190</v>
       </c>
+      <c r="BL12" s="4">
+        <v>1238</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4372,13 +4432,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE23" sqref="BE23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -4392,12 +4452,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4587,8 +4647,11 @@
       <c r="BK3" s="6">
         <v>44027</v>
       </c>
+      <c r="BL3" s="6">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4778,8 +4841,11 @@
       <c r="BK4" s="1">
         <v>2</v>
       </c>
+      <c r="BL4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4969,8 +5035,11 @@
       <c r="BK5" s="1">
         <v>89</v>
       </c>
+      <c r="BL5" s="1">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5160,8 +5229,11 @@
       <c r="BK6" s="1">
         <v>5</v>
       </c>
+      <c r="BL6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5351,8 +5423,11 @@
       <c r="BK7" s="1">
         <v>43</v>
       </c>
+      <c r="BL7" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5542,8 +5617,11 @@
       <c r="BK8" s="1">
         <v>21</v>
       </c>
+      <c r="BL8" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5733,8 +5811,11 @@
       <c r="BK9" s="1">
         <v>13</v>
       </c>
+      <c r="BL9" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5924,8 +6005,11 @@
       <c r="BK10" s="1">
         <v>3</v>
       </c>
+      <c r="BL10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6115,8 +6199,11 @@
       <c r="BK11" s="1">
         <v>3</v>
       </c>
+      <c r="BL11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6306,16 +6393,19 @@
       <c r="BK12" s="4">
         <v>179</v>
       </c>
+      <c r="BL12" s="4">
+        <v>183</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6327,10 +6417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6347,12 +6437,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6542,8 +6632,11 @@
       <c r="BK3" s="6">
         <v>44027</v>
       </c>
+      <c r="BL3" s="6">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6733,8 +6826,11 @@
       <c r="BK4" s="1">
         <v>19</v>
       </c>
+      <c r="BL4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6924,8 +7020,11 @@
       <c r="BK5" s="1">
         <v>147</v>
       </c>
+      <c r="BL5" s="1">
+        <v>149</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7115,8 +7214,11 @@
       <c r="BK6" s="1">
         <v>11</v>
       </c>
+      <c r="BL6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7306,8 +7408,11 @@
       <c r="BK7" s="1">
         <v>116</v>
       </c>
+      <c r="BL7" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7497,8 +7602,11 @@
       <c r="BK8" s="1">
         <v>76</v>
       </c>
+      <c r="BL8" s="1">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7688,8 +7796,11 @@
       <c r="BK9" s="1">
         <v>7</v>
       </c>
+      <c r="BL9" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7879,8 +7990,11 @@
       <c r="BK10" s="1">
         <v>3</v>
       </c>
+      <c r="BL10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -8070,8 +8184,11 @@
       <c r="BK11" s="1">
         <v>4</v>
       </c>
+      <c r="BL11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8263,21 +8380,24 @@
       <c r="BK12" s="4">
         <v>383</v>
       </c>
+      <c r="BL12" s="4">
+        <v>391</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7604A041-4C63-4C30-AC0B-9D65967F211E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1C3CEA1-7750-4747-8581-C032D67E765B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BL15"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -474,12 +474,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -672,8 +672,11 @@
       <c r="BL3" s="6">
         <v>44028</v>
       </c>
+      <c r="BM3" s="6">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -866,8 +869,11 @@
       <c r="BL4" s="1">
         <v>19</v>
       </c>
+      <c r="BM4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1060,8 +1066,11 @@
       <c r="BL5" s="1">
         <v>130</v>
       </c>
+      <c r="BM5" s="1">
+        <v>132</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1263,11 @@
       <c r="BL6" s="1">
         <v>17</v>
       </c>
+      <c r="BM6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1448,8 +1460,11 @@
       <c r="BL7" s="1">
         <v>127</v>
       </c>
+      <c r="BM7" s="1">
+        <v>127</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1642,8 +1657,11 @@
       <c r="BL8" s="1">
         <v>39</v>
       </c>
+      <c r="BM8" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1836,8 +1854,11 @@
       <c r="BL9" s="1">
         <v>51</v>
       </c>
+      <c r="BM9" s="1">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2030,8 +2051,11 @@
       <c r="BL10" s="1">
         <v>15</v>
       </c>
+      <c r="BM10" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2224,8 +2248,11 @@
       <c r="BL11" s="1">
         <v>10</v>
       </c>
+      <c r="BM11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2420,16 +2447,19 @@
       <c r="BL12" s="4">
         <v>408</v>
       </c>
+      <c r="BM12" s="4">
+        <v>413</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2442,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BL16"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2461,12 +2491,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2659,8 +2689,11 @@
       <c r="BL3" s="6">
         <v>44028</v>
       </c>
+      <c r="BM3" s="6">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2853,8 +2886,11 @@
       <c r="BL4" s="1">
         <v>41</v>
       </c>
+      <c r="BM4" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3047,8 +3083,11 @@
       <c r="BL5" s="1">
         <v>394</v>
       </c>
+      <c r="BM5" s="1">
+        <v>404</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3241,8 +3280,11 @@
       <c r="BL6" s="1">
         <v>18</v>
       </c>
+      <c r="BM6" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3435,8 +3477,11 @@
       <c r="BL7" s="1">
         <v>415</v>
       </c>
+      <c r="BM7" s="1">
+        <v>418</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3629,8 +3674,11 @@
       <c r="BL8" s="1">
         <v>183</v>
       </c>
+      <c r="BM8" s="1">
+        <v>182</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3823,8 +3871,11 @@
       <c r="BL9" s="1">
         <v>72</v>
       </c>
+      <c r="BM9" s="1">
+        <v>73</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4017,8 +4068,11 @@
       <c r="BL10" s="1">
         <v>104</v>
       </c>
+      <c r="BM10" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4211,8 +4265,11 @@
       <c r="BL11" s="1">
         <v>11</v>
       </c>
+      <c r="BM11" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4406,21 +4463,24 @@
       <c r="BL12" s="4">
         <v>1238</v>
       </c>
+      <c r="BM12" s="4">
+        <v>1266</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4432,10 +4492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BL15"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -4452,12 +4512,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4650,8 +4710,11 @@
       <c r="BL3" s="6">
         <v>44028</v>
       </c>
+      <c r="BM3" s="6">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4844,8 +4907,11 @@
       <c r="BL4" s="1">
         <v>2</v>
       </c>
+      <c r="BM4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5038,8 +5104,11 @@
       <c r="BL5" s="1">
         <v>91</v>
       </c>
+      <c r="BM5" s="1">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5232,8 +5301,11 @@
       <c r="BL6" s="1">
         <v>5</v>
       </c>
+      <c r="BM6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5426,8 +5498,11 @@
       <c r="BL7" s="1">
         <v>44</v>
       </c>
+      <c r="BM7" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5620,8 +5695,11 @@
       <c r="BL8" s="1">
         <v>22</v>
       </c>
+      <c r="BM8" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5814,8 +5892,11 @@
       <c r="BL9" s="1">
         <v>13</v>
       </c>
+      <c r="BM9" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6008,8 +6089,11 @@
       <c r="BL10" s="1">
         <v>3</v>
       </c>
+      <c r="BM10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6202,8 +6286,11 @@
       <c r="BL11" s="1">
         <v>3</v>
       </c>
+      <c r="BM11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6396,16 +6483,19 @@
       <c r="BL12" s="4">
         <v>183</v>
       </c>
+      <c r="BM12" s="4">
+        <v>189</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6417,10 +6507,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BL17"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6437,12 +6527,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6635,8 +6725,11 @@
       <c r="BL3" s="6">
         <v>44028</v>
       </c>
+      <c r="BM3" s="6">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6829,8 +6922,11 @@
       <c r="BL4" s="1">
         <v>19</v>
       </c>
+      <c r="BM4" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7023,8 +7119,11 @@
       <c r="BL5" s="1">
         <v>149</v>
       </c>
+      <c r="BM5" s="1">
+        <v>151</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7217,8 +7316,11 @@
       <c r="BL6" s="1">
         <v>11</v>
       </c>
+      <c r="BM6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7411,8 +7513,11 @@
       <c r="BL7" s="1">
         <v>123</v>
       </c>
+      <c r="BM7" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7605,8 +7710,11 @@
       <c r="BL8" s="1">
         <v>77</v>
       </c>
+      <c r="BM8" s="1">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7799,8 +7907,11 @@
       <c r="BL9" s="1">
         <v>7</v>
       </c>
+      <c r="BM9" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7993,8 +8104,11 @@
       <c r="BL10" s="1">
         <v>1</v>
       </c>
+      <c r="BM10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -8187,8 +8301,11 @@
       <c r="BL11" s="1">
         <v>4</v>
       </c>
+      <c r="BM11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8383,21 +8500,24 @@
       <c r="BL12" s="4">
         <v>391</v>
       </c>
+      <c r="BM12" s="4">
+        <v>393</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1C3CEA1-7750-4747-8581-C032D67E765B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2AE8699A-5C9D-42C7-90BC-671A435B6002}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -454,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
@@ -474,12 +474,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -675,8 +675,11 @@
       <c r="BM3" s="6">
         <v>44029</v>
       </c>
+      <c r="BN3" s="6">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -872,8 +875,11 @@
       <c r="BM4" s="1">
         <v>19</v>
       </c>
+      <c r="BN4" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1069,8 +1075,11 @@
       <c r="BM5" s="1">
         <v>132</v>
       </c>
+      <c r="BN5" s="1">
+        <v>133</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1266,8 +1275,11 @@
       <c r="BM6" s="1">
         <v>17</v>
       </c>
+      <c r="BN6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1463,8 +1475,11 @@
       <c r="BM7" s="1">
         <v>127</v>
       </c>
+      <c r="BN7" s="1">
+        <v>136</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1660,8 +1675,11 @@
       <c r="BM8" s="1">
         <v>40</v>
       </c>
+      <c r="BN8" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1857,8 +1875,11 @@
       <c r="BM9" s="1">
         <v>51</v>
       </c>
+      <c r="BN9" s="1">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2054,8 +2075,11 @@
       <c r="BM10" s="1">
         <v>16</v>
       </c>
+      <c r="BN10" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2251,8 +2275,11 @@
       <c r="BM11" s="1">
         <v>11</v>
       </c>
+      <c r="BN11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2450,16 +2477,19 @@
       <c r="BM12" s="4">
         <v>413</v>
       </c>
+      <c r="BN12" s="4">
+        <v>426</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
@@ -2491,12 +2521,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2692,8 +2722,11 @@
       <c r="BM3" s="6">
         <v>44029</v>
       </c>
+      <c r="BN3" s="6">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2889,8 +2922,11 @@
       <c r="BM4" s="1">
         <v>41</v>
       </c>
+      <c r="BN4" s="1">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3086,8 +3122,11 @@
       <c r="BM5" s="1">
         <v>404</v>
       </c>
+      <c r="BN5" s="1">
+        <v>412</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3283,8 +3322,11 @@
       <c r="BM6" s="1">
         <v>19</v>
       </c>
+      <c r="BN6" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3480,8 +3522,11 @@
       <c r="BM7" s="1">
         <v>418</v>
       </c>
+      <c r="BN7" s="1">
+        <v>466</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3677,8 +3722,11 @@
       <c r="BM8" s="1">
         <v>182</v>
       </c>
+      <c r="BN8" s="1">
+        <v>182</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3874,8 +3922,11 @@
       <c r="BM9" s="1">
         <v>73</v>
       </c>
+      <c r="BN9" s="1">
+        <v>109</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4071,8 +4122,11 @@
       <c r="BM10" s="1">
         <v>106</v>
       </c>
+      <c r="BN10" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4268,8 +4322,11 @@
       <c r="BM11" s="1">
         <v>23</v>
       </c>
+      <c r="BN11" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4466,21 +4523,24 @@
       <c r="BM12" s="4">
         <v>1266</v>
       </c>
+      <c r="BN12" s="4">
+        <v>1363</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4492,7 +4552,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
@@ -4512,12 +4572,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4713,8 +4773,11 @@
       <c r="BM3" s="6">
         <v>44029</v>
       </c>
+      <c r="BN3" s="6">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4910,8 +4973,11 @@
       <c r="BM4" s="1">
         <v>2</v>
       </c>
+      <c r="BN4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5107,8 +5173,11 @@
       <c r="BM5" s="1">
         <v>96</v>
       </c>
+      <c r="BN5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5304,8 +5373,11 @@
       <c r="BM6" s="1">
         <v>5</v>
       </c>
+      <c r="BN6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5501,8 +5573,11 @@
       <c r="BM7" s="1">
         <v>44</v>
       </c>
+      <c r="BN7" s="1">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5698,8 +5773,11 @@
       <c r="BM8" s="1">
         <v>22</v>
       </c>
+      <c r="BN8" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5895,8 +5973,11 @@
       <c r="BM9" s="1">
         <v>14</v>
       </c>
+      <c r="BN9" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6092,8 +6173,11 @@
       <c r="BM10" s="1">
         <v>3</v>
       </c>
+      <c r="BN10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6289,8 +6373,11 @@
       <c r="BM11" s="1">
         <v>3</v>
       </c>
+      <c r="BN11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6486,16 +6573,19 @@
       <c r="BM12" s="4">
         <v>189</v>
       </c>
+      <c r="BN12" s="4">
+        <v>202</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6507,7 +6597,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
@@ -6527,12 +6617,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6728,8 +6818,11 @@
       <c r="BM3" s="6">
         <v>44029</v>
       </c>
+      <c r="BN3" s="6">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6925,8 +7018,11 @@
       <c r="BM4" s="1">
         <v>19</v>
       </c>
+      <c r="BN4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7122,8 +7218,11 @@
       <c r="BM5" s="1">
         <v>151</v>
       </c>
+      <c r="BN5" s="1">
+        <v>151</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7319,8 +7418,11 @@
       <c r="BM6" s="1">
         <v>11</v>
       </c>
+      <c r="BN6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7516,8 +7618,11 @@
       <c r="BM7" s="1">
         <v>123</v>
       </c>
+      <c r="BN7" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7713,8 +7818,11 @@
       <c r="BM8" s="1">
         <v>77</v>
       </c>
+      <c r="BN8" s="1">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7910,8 +8018,11 @@
       <c r="BM9" s="1">
         <v>7</v>
       </c>
+      <c r="BN9" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8107,8 +8218,11 @@
       <c r="BM10" s="1">
         <v>1</v>
       </c>
+      <c r="BN10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -8304,8 +8418,11 @@
       <c r="BM11" s="1">
         <v>4</v>
       </c>
+      <c r="BN11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8503,21 +8620,24 @@
       <c r="BM12" s="4">
         <v>393</v>
       </c>
+      <c r="BN12" s="4">
+        <v>424</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2AE8699A-5C9D-42C7-90BC-671A435B6002}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{862BCC87-0031-4A59-983C-3AFD3E761254}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -454,9 +454,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BN15"/>
+  <dimension ref="A1:BO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -474,12 +474,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -678,8 +678,11 @@
       <c r="BN3" s="6">
         <v>44030</v>
       </c>
+      <c r="BO3" s="6">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -878,8 +881,11 @@
       <c r="BN4" s="1">
         <v>20</v>
       </c>
+      <c r="BO4" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1084,11 @@
       <c r="BN5" s="1">
         <v>133</v>
       </c>
+      <c r="BO5" s="1">
+        <v>134</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1278,8 +1287,11 @@
       <c r="BN6" s="1">
         <v>18</v>
       </c>
+      <c r="BO6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1478,8 +1490,11 @@
       <c r="BN7" s="1">
         <v>136</v>
       </c>
+      <c r="BO7" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1678,8 +1693,11 @@
       <c r="BN8" s="1">
         <v>41</v>
       </c>
+      <c r="BO8" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1878,8 +1896,11 @@
       <c r="BN9" s="1">
         <v>51</v>
       </c>
+      <c r="BO9" s="1">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2078,8 +2099,11 @@
       <c r="BN10" s="1">
         <v>16</v>
       </c>
+      <c r="BO10" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2278,8 +2302,11 @@
       <c r="BN11" s="1">
         <v>11</v>
       </c>
+      <c r="BO11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2480,16 +2507,19 @@
       <c r="BN12" s="4">
         <v>426</v>
       </c>
+      <c r="BO12" s="4">
+        <v>433</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BN16"/>
+  <dimension ref="A1:BO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
@@ -2521,12 +2551,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2725,8 +2755,11 @@
       <c r="BN3" s="6">
         <v>44030</v>
       </c>
+      <c r="BO3" s="6">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2925,8 +2958,11 @@
       <c r="BN4" s="1">
         <v>46</v>
       </c>
+      <c r="BO4" s="1">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3125,8 +3161,11 @@
       <c r="BN5" s="1">
         <v>412</v>
       </c>
+      <c r="BO5" s="1">
+        <v>413</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3325,8 +3364,11 @@
       <c r="BN6" s="1">
         <v>19</v>
       </c>
+      <c r="BO6" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3525,8 +3567,11 @@
       <c r="BN7" s="1">
         <v>466</v>
       </c>
+      <c r="BO7" s="1">
+        <v>478</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3725,8 +3770,11 @@
       <c r="BN8" s="1">
         <v>182</v>
       </c>
+      <c r="BO8" s="1">
+        <v>184</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3925,8 +3973,11 @@
       <c r="BN9" s="1">
         <v>109</v>
       </c>
+      <c r="BO9" s="1">
+        <v>110</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4125,8 +4176,11 @@
       <c r="BN10" s="1">
         <v>106</v>
       </c>
+      <c r="BO10" s="1">
+        <v>107</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4325,8 +4379,11 @@
       <c r="BN11" s="1">
         <v>23</v>
       </c>
+      <c r="BO11" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4526,21 +4583,24 @@
       <c r="BN12" s="4">
         <v>1363</v>
       </c>
+      <c r="BO12" s="4">
+        <v>1380</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4552,7 +4612,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BN15"/>
+  <dimension ref="A1:BO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
@@ -4572,12 +4632,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4776,8 +4836,11 @@
       <c r="BN3" s="6">
         <v>44030</v>
       </c>
+      <c r="BO3" s="6">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4976,8 +5039,11 @@
       <c r="BN4" s="1">
         <v>2</v>
       </c>
+      <c r="BO4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5176,8 +5242,11 @@
       <c r="BN5" s="1">
         <v>95</v>
       </c>
+      <c r="BO5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5376,8 +5445,11 @@
       <c r="BN6" s="1">
         <v>5</v>
       </c>
+      <c r="BO6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5576,8 +5648,11 @@
       <c r="BN7" s="1">
         <v>54</v>
       </c>
+      <c r="BO7" s="1">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5776,8 +5851,11 @@
       <c r="BN8" s="1">
         <v>22</v>
       </c>
+      <c r="BO8" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5976,8 +6054,11 @@
       <c r="BN9" s="1">
         <v>18</v>
       </c>
+      <c r="BO9" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6176,8 +6257,11 @@
       <c r="BN10" s="1">
         <v>3</v>
       </c>
+      <c r="BO10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6376,8 +6460,11 @@
       <c r="BN11" s="1">
         <v>3</v>
       </c>
+      <c r="BO11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6576,16 +6663,19 @@
       <c r="BN12" s="4">
         <v>202</v>
       </c>
+      <c r="BO12" s="4">
+        <v>204</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6597,9 +6687,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BO17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6617,12 +6707,12 @@
     <col min="62" max="16384" width="9.078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6821,8 +6911,11 @@
       <c r="BN3" s="6">
         <v>44030</v>
       </c>
+      <c r="BO3" s="6">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7021,8 +7114,11 @@
       <c r="BN4" s="1">
         <v>36</v>
       </c>
+      <c r="BO4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7221,8 +7317,11 @@
       <c r="BN5" s="1">
         <v>151</v>
       </c>
+      <c r="BO5" s="1">
+        <v>151</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7421,8 +7520,11 @@
       <c r="BN6" s="1">
         <v>11</v>
       </c>
+      <c r="BO6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7621,8 +7723,11 @@
       <c r="BN7" s="1">
         <v>126</v>
       </c>
+      <c r="BO7" s="1">
+        <v>128</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7821,8 +7926,11 @@
       <c r="BN8" s="1">
         <v>78</v>
       </c>
+      <c r="BO8" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8021,8 +8129,11 @@
       <c r="BN9" s="1">
         <v>17</v>
       </c>
+      <c r="BO9" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8221,8 +8332,11 @@
       <c r="BN10" s="1">
         <v>1</v>
       </c>
+      <c r="BO10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -8421,8 +8535,11 @@
       <c r="BN11" s="1">
         <v>4</v>
       </c>
+      <c r="BO11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8623,21 +8740,24 @@
       <c r="BN12" s="4">
         <v>424</v>
       </c>
+      <c r="BO12" s="4">
+        <v>430</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{862BCC87-0031-4A59-983C-3AFD3E761254}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{147E530A-5761-42F9-987C-F95D7A58CFEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -454,32 +454,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BO15"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.71875" style="1" customWidth="1"/>
-    <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
+    <col min="58" max="68" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -681,8 +681,11 @@
       <c r="BO3" s="6">
         <v>44031</v>
       </c>
+      <c r="BP3" s="6">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -884,8 +887,11 @@
       <c r="BO4" s="1">
         <v>20</v>
       </c>
+      <c r="BP4" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1087,8 +1093,11 @@
       <c r="BO5" s="1">
         <v>134</v>
       </c>
+      <c r="BP5" s="1">
+        <v>136</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1290,8 +1299,11 @@
       <c r="BO6" s="1">
         <v>18</v>
       </c>
+      <c r="BP6" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1493,8 +1505,11 @@
       <c r="BO7" s="1">
         <v>139</v>
       </c>
+      <c r="BP7" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1696,8 +1711,11 @@
       <c r="BO8" s="1">
         <v>41</v>
       </c>
+      <c r="BP8" s="1">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1899,8 +1917,11 @@
       <c r="BO9" s="1">
         <v>53</v>
       </c>
+      <c r="BP9" s="1">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2102,8 +2123,11 @@
       <c r="BO10" s="1">
         <v>17</v>
       </c>
+      <c r="BP10" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2305,8 +2329,11 @@
       <c r="BO11" s="1">
         <v>11</v>
       </c>
+      <c r="BP11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2510,16 +2537,19 @@
       <c r="BO12" s="4">
         <v>433</v>
       </c>
+      <c r="BP12" s="4">
+        <v>437</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2532,31 +2562,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BO16"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BR18" sqref="BR18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="61" width="6.71875" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="68" width="6.73046875" style="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2758,8 +2788,11 @@
       <c r="BO3" s="6">
         <v>44031</v>
       </c>
+      <c r="BP3" s="6">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2961,8 +2994,11 @@
       <c r="BO4" s="1">
         <v>46</v>
       </c>
+      <c r="BP4" s="1">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3164,8 +3200,11 @@
       <c r="BO5" s="1">
         <v>413</v>
       </c>
+      <c r="BP5" s="1">
+        <v>413</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3367,8 +3406,11 @@
       <c r="BO6" s="1">
         <v>19</v>
       </c>
+      <c r="BP6" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3570,8 +3612,11 @@
       <c r="BO7" s="1">
         <v>478</v>
       </c>
+      <c r="BP7" s="1">
+        <v>493</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3773,8 +3818,11 @@
       <c r="BO8" s="1">
         <v>184</v>
       </c>
+      <c r="BP8" s="1">
+        <v>188</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3976,8 +4024,11 @@
       <c r="BO9" s="1">
         <v>110</v>
       </c>
+      <c r="BP9" s="1">
+        <v>110</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4179,8 +4230,11 @@
       <c r="BO10" s="1">
         <v>107</v>
       </c>
+      <c r="BP10" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4382,8 +4436,11 @@
       <c r="BO11" s="1">
         <v>23</v>
       </c>
+      <c r="BP11" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4586,21 +4643,24 @@
       <c r="BO12" s="4">
         <v>1380</v>
       </c>
+      <c r="BP12" s="4">
+        <v>1416</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4612,32 +4672,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BO15"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BP14" sqref="BP14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.078125" style="1" customWidth="1"/>
-    <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
+    <col min="58" max="68" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4839,8 +4899,11 @@
       <c r="BO3" s="6">
         <v>44031</v>
       </c>
+      <c r="BP3" s="6">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5042,8 +5105,11 @@
       <c r="BO4" s="1">
         <v>2</v>
       </c>
+      <c r="BP4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5245,8 +5311,11 @@
       <c r="BO5" s="1">
         <v>95</v>
       </c>
+      <c r="BP5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5448,8 +5517,11 @@
       <c r="BO6" s="1">
         <v>5</v>
       </c>
+      <c r="BP6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5651,8 +5723,11 @@
       <c r="BO7" s="1">
         <v>54</v>
       </c>
+      <c r="BP7" s="1">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5854,8 +5929,11 @@
       <c r="BO8" s="1">
         <v>22</v>
       </c>
+      <c r="BP8" s="1">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6057,8 +6135,11 @@
       <c r="BO9" s="1">
         <v>20</v>
       </c>
+      <c r="BP9" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6260,8 +6341,11 @@
       <c r="BO10" s="1">
         <v>3</v>
       </c>
+      <c r="BP10" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6463,8 +6547,11 @@
       <c r="BO11" s="1">
         <v>3</v>
       </c>
+      <c r="BP11" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6666,16 +6753,19 @@
       <c r="BO12" s="4">
         <v>204</v>
       </c>
+      <c r="BP12" s="4">
+        <v>212</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6687,32 +6777,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BO17"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="61" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="1"/>
+    <col min="58" max="68" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -6914,8 +7004,11 @@
       <c r="BO3" s="6">
         <v>44031</v>
       </c>
+      <c r="BP3" s="6">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7117,8 +7210,11 @@
       <c r="BO4" s="1">
         <v>36</v>
       </c>
+      <c r="BP4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7320,8 +7416,11 @@
       <c r="BO5" s="1">
         <v>151</v>
       </c>
+      <c r="BP5" s="1">
+        <v>151</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7523,8 +7622,11 @@
       <c r="BO6" s="1">
         <v>11</v>
       </c>
+      <c r="BP6" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7726,8 +7828,11 @@
       <c r="BO7" s="1">
         <v>128</v>
       </c>
+      <c r="BP7" s="1">
+        <v>129</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7929,8 +8034,11 @@
       <c r="BO8" s="1">
         <v>82</v>
       </c>
+      <c r="BP8" s="1">
+        <v>91</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8132,8 +8240,11 @@
       <c r="BO9" s="1">
         <v>17</v>
       </c>
+      <c r="BP9" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8335,8 +8446,11 @@
       <c r="BO10" s="1">
         <v>1</v>
       </c>
+      <c r="BP10" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -8538,8 +8652,11 @@
       <c r="BO11" s="1">
         <v>4</v>
       </c>
+      <c r="BP11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8743,26 +8860,29 @@
       <c r="BO12" s="4">
         <v>430</v>
       </c>
+      <c r="BP12" s="4">
+        <v>449</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{147E530A-5761-42F9-987C-F95D7A58CFEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7F04ED84-F6E2-4B90-8406-E03C5CD13E9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
   <si>
     <t>4/5N</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>The above table contains cumulative data on assisted living facilities with one or more confirmed COVID-19 cases.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -470,16 +473,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="68" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="70" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -684,8 +687,14 @@
       <c r="BP3" s="6">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="6">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -890,8 +899,14 @@
       <c r="BP4" s="1">
         <v>20</v>
       </c>
+      <c r="BQ4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1096,8 +1111,14 @@
       <c r="BP5" s="1">
         <v>136</v>
       </c>
+      <c r="BQ5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>143</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,8 +1323,14 @@
       <c r="BP6" s="1">
         <v>19</v>
       </c>
+      <c r="BQ6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1508,8 +1535,14 @@
       <c r="BP7" s="1">
         <v>139</v>
       </c>
+      <c r="BQ7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1714,8 +1747,14 @@
       <c r="BP8" s="1">
         <v>42</v>
       </c>
+      <c r="BQ8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1920,8 +1959,14 @@
       <c r="BP9" s="1">
         <v>53</v>
       </c>
+      <c r="BQ9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2126,8 +2171,14 @@
       <c r="BP10" s="1">
         <v>17</v>
       </c>
+      <c r="BQ10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2332,8 +2383,14 @@
       <c r="BP11" s="1">
         <v>11</v>
       </c>
+      <c r="BQ11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2540,16 +2597,22 @@
       <c r="BP12" s="4">
         <v>437</v>
       </c>
+      <c r="BQ12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>449</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2562,13 +2625,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR18" sqref="BR18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2577,16 +2640,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="68" width="6.73046875" style="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="70" width="6.73046875" style="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2791,8 +2854,14 @@
       <c r="BP3" s="6">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="6">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2997,8 +3066,14 @@
       <c r="BP4" s="1">
         <v>46</v>
       </c>
+      <c r="BQ4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3203,8 +3278,14 @@
       <c r="BP5" s="1">
         <v>413</v>
       </c>
+      <c r="BQ5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>426</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3409,8 +3490,14 @@
       <c r="BP6" s="1">
         <v>20</v>
       </c>
+      <c r="BQ6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3615,8 +3702,14 @@
       <c r="BP7" s="1">
         <v>493</v>
       </c>
+      <c r="BQ7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>511</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3821,8 +3914,14 @@
       <c r="BP8" s="1">
         <v>188</v>
       </c>
+      <c r="BQ8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>193</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4027,8 +4126,14 @@
       <c r="BP9" s="1">
         <v>110</v>
       </c>
+      <c r="BQ9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>125</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4233,8 +4338,14 @@
       <c r="BP10" s="1">
         <v>123</v>
       </c>
+      <c r="BQ10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>134</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4439,8 +4550,14 @@
       <c r="BP11" s="1">
         <v>23</v>
       </c>
+      <c r="BQ11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4646,21 +4763,27 @@
       <c r="BP12" s="4">
         <v>1416</v>
       </c>
+      <c r="BQ12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>1497</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4672,13 +4795,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BP14" sqref="BP14"/>
+      <selection pane="bottomRight" activeCell="BQ3" sqref="BQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4688,16 +4811,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
-    <col min="58" max="68" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="70" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4902,8 +5025,14 @@
       <c r="BP3" s="6">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="6">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5108,8 +5237,14 @@
       <c r="BP4" s="1">
         <v>2</v>
       </c>
+      <c r="BQ4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5314,8 +5449,14 @@
       <c r="BP5" s="1">
         <v>95</v>
       </c>
+      <c r="BQ5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5520,8 +5661,14 @@
       <c r="BP6" s="1">
         <v>5</v>
       </c>
+      <c r="BQ6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5726,8 +5873,14 @@
       <c r="BP7" s="1">
         <v>56</v>
       </c>
+      <c r="BQ7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5932,8 +6085,14 @@
       <c r="BP8" s="1">
         <v>28</v>
       </c>
+      <c r="BQ8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6138,8 +6297,14 @@
       <c r="BP9" s="1">
         <v>20</v>
       </c>
+      <c r="BQ9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6344,8 +6509,14 @@
       <c r="BP10" s="1">
         <v>3</v>
       </c>
+      <c r="BQ10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6550,8 +6721,14 @@
       <c r="BP11" s="1">
         <v>3</v>
       </c>
+      <c r="BQ11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6756,16 +6933,22 @@
       <c r="BP12" s="4">
         <v>212</v>
       </c>
+      <c r="BQ12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>223</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6777,13 +6960,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ2" sqref="BQ2"/>
+      <selection pane="bottomRight" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6793,16 +6976,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="68" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="70" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -7007,8 +7190,14 @@
       <c r="BP3" s="6">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="6">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7213,8 +7402,14 @@
       <c r="BP4" s="1">
         <v>36</v>
       </c>
+      <c r="BQ4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7419,8 +7614,14 @@
       <c r="BP5" s="1">
         <v>151</v>
       </c>
+      <c r="BQ5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>165</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7625,8 +7826,14 @@
       <c r="BP6" s="1">
         <v>11</v>
       </c>
+      <c r="BQ6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -7831,8 +8038,14 @@
       <c r="BP7" s="1">
         <v>129</v>
       </c>
+      <c r="BQ7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8037,8 +8250,14 @@
       <c r="BP8" s="1">
         <v>91</v>
       </c>
+      <c r="BQ8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8243,8 +8462,14 @@
       <c r="BP9" s="1">
         <v>17</v>
       </c>
+      <c r="BQ9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8449,8 +8674,14 @@
       <c r="BP10" s="1">
         <v>10</v>
       </c>
+      <c r="BQ10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -8655,8 +8886,14 @@
       <c r="BP11" s="1">
         <v>4</v>
       </c>
+      <c r="BQ11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -8863,21 +9100,27 @@
       <c r="BP12" s="4">
         <v>449</v>
       </c>
+      <c r="BQ12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>486</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7F04ED84-F6E2-4B90-8406-E03C5CD13E9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95DDDA62-F649-49B0-B15D-7EFBA8FABD39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -457,13 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BR1" sqref="BR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -473,16 +473,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="70" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="71" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -693,8 +693,11 @@
       <c r="BR3" s="6">
         <v>44034</v>
       </c>
+      <c r="BS3" s="6">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -905,8 +908,11 @@
       <c r="BR4" s="1">
         <v>22</v>
       </c>
+      <c r="BS4" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1117,8 +1123,11 @@
       <c r="BR5" s="1">
         <v>143</v>
       </c>
+      <c r="BS5" s="1">
+        <v>143</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,8 +1338,11 @@
       <c r="BR6" s="1">
         <v>19</v>
       </c>
+      <c r="BS6" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1541,8 +1553,11 @@
       <c r="BR7" s="1">
         <v>139</v>
       </c>
+      <c r="BS7" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1753,8 +1768,11 @@
       <c r="BR8" s="1">
         <v>43</v>
       </c>
+      <c r="BS8" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1965,8 +1983,11 @@
       <c r="BR9" s="1">
         <v>54</v>
       </c>
+      <c r="BS9" s="1">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2177,8 +2198,11 @@
       <c r="BR10" s="1">
         <v>18</v>
       </c>
+      <c r="BS10" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2389,8 +2413,11 @@
       <c r="BR11" s="1">
         <v>11</v>
       </c>
+      <c r="BS11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2603,16 +2630,19 @@
       <c r="BR12" s="4">
         <v>449</v>
       </c>
+      <c r="BS12" s="4">
+        <v>452</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2625,13 +2655,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BR16"/>
+  <dimension ref="A1:BS16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2640,16 +2670,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="70" width="6.73046875" style="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="71" width="6.73046875" style="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2860,8 +2890,11 @@
       <c r="BR3" s="6">
         <v>44034</v>
       </c>
+      <c r="BS3" s="6">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3072,8 +3105,11 @@
       <c r="BR4" s="1">
         <v>46</v>
       </c>
+      <c r="BS4" s="1">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3284,8 +3320,11 @@
       <c r="BR5" s="1">
         <v>426</v>
       </c>
+      <c r="BS5" s="1">
+        <v>427</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3496,8 +3535,11 @@
       <c r="BR6" s="1">
         <v>22</v>
       </c>
+      <c r="BS6" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3708,8 +3750,11 @@
       <c r="BR7" s="1">
         <v>511</v>
       </c>
+      <c r="BS7" s="1">
+        <v>511</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3920,8 +3965,11 @@
       <c r="BR8" s="1">
         <v>193</v>
       </c>
+      <c r="BS8" s="1">
+        <v>203</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4132,8 +4180,11 @@
       <c r="BR9" s="1">
         <v>125</v>
       </c>
+      <c r="BS9" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4344,8 +4395,11 @@
       <c r="BR10" s="1">
         <v>134</v>
       </c>
+      <c r="BS10" s="1">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4556,8 +4610,11 @@
       <c r="BR11" s="1">
         <v>40</v>
       </c>
+      <c r="BS11" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4769,21 +4826,24 @@
       <c r="BR12" s="4">
         <v>1497</v>
       </c>
+      <c r="BS12" s="4">
+        <v>1510</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4795,13 +4855,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BS15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ3" sqref="BQ3"/>
+      <selection pane="bottomRight" activeCell="BS3" sqref="BS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4811,16 +4871,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
-    <col min="58" max="70" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="71" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5031,8 +5091,11 @@
       <c r="BR3" s="6">
         <v>44034</v>
       </c>
+      <c r="BS3" s="6">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5243,8 +5306,11 @@
       <c r="BR4" s="1">
         <v>2</v>
       </c>
+      <c r="BS4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5455,8 +5521,11 @@
       <c r="BR5" s="1">
         <v>99</v>
       </c>
+      <c r="BS5" s="1">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5667,8 +5736,11 @@
       <c r="BR6" s="1">
         <v>5</v>
       </c>
+      <c r="BS6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5879,8 +5951,11 @@
       <c r="BR7" s="1">
         <v>57</v>
       </c>
+      <c r="BS7" s="1">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6091,8 +6166,11 @@
       <c r="BR8" s="1">
         <v>29</v>
       </c>
+      <c r="BS8" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6303,8 +6381,11 @@
       <c r="BR9" s="1">
         <v>23</v>
       </c>
+      <c r="BS9" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6515,8 +6596,11 @@
       <c r="BR10" s="1">
         <v>4</v>
       </c>
+      <c r="BS10" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6727,8 +6811,11 @@
       <c r="BR11" s="1">
         <v>4</v>
       </c>
+      <c r="BS11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -6939,16 +7026,19 @@
       <c r="BR12" s="4">
         <v>223</v>
       </c>
+      <c r="BS12" s="4">
+        <v>227</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6960,13 +7050,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BS17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR2" sqref="BR2"/>
+      <selection pane="bottomRight" activeCell="BS2" sqref="BS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6976,16 +7066,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="70" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="71" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -7196,8 +7286,11 @@
       <c r="BR3" s="6">
         <v>44034</v>
       </c>
+      <c r="BS3" s="6">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7408,8 +7501,11 @@
       <c r="BR4" s="1">
         <v>36</v>
       </c>
+      <c r="BS4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7620,8 +7716,11 @@
       <c r="BR5" s="1">
         <v>165</v>
       </c>
+      <c r="BS5" s="1">
+        <v>191</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7832,8 +7931,11 @@
       <c r="BR6" s="1">
         <v>12</v>
       </c>
+      <c r="BS6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -8044,8 +8146,11 @@
       <c r="BR7" s="1">
         <v>139</v>
       </c>
+      <c r="BS7" s="1">
+        <v>140</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8256,8 +8361,11 @@
       <c r="BR8" s="1">
         <v>95</v>
       </c>
+      <c r="BS8" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8468,8 +8576,11 @@
       <c r="BR9" s="1">
         <v>17</v>
       </c>
+      <c r="BS9" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8680,8 +8791,11 @@
       <c r="BR10" s="1">
         <v>10</v>
       </c>
+      <c r="BS10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -8892,8 +9006,11 @@
       <c r="BR11" s="1">
         <v>12</v>
       </c>
+      <c r="BS11" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -9106,21 +9223,24 @@
       <c r="BR12" s="4">
         <v>486</v>
       </c>
+      <c r="BS12" s="4">
+        <v>521</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95DDDA62-F649-49B0-B15D-7EFBA8FABD39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34F606AE-D593-4CBE-B27B-835F81DBF7EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -457,13 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR1" sqref="BR1"/>
+      <selection pane="bottomRight" activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -473,16 +473,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="71" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="72" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -696,8 +696,11 @@
       <c r="BS3" s="6">
         <v>44035</v>
       </c>
+      <c r="BT3" s="6">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -911,8 +914,11 @@
       <c r="BS4" s="1">
         <v>22</v>
       </c>
+      <c r="BT4" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1132,11 @@
       <c r="BS5" s="1">
         <v>143</v>
       </c>
+      <c r="BT5" s="1">
+        <v>148</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,8 +1350,11 @@
       <c r="BS6" s="1">
         <v>21</v>
       </c>
+      <c r="BT6" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1556,8 +1568,11 @@
       <c r="BS7" s="1">
         <v>139</v>
       </c>
+      <c r="BT7" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1771,8 +1786,11 @@
       <c r="BS8" s="1">
         <v>43</v>
       </c>
+      <c r="BT8" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1986,8 +2004,11 @@
       <c r="BS9" s="1">
         <v>54</v>
       </c>
+      <c r="BT9" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2201,8 +2222,11 @@
       <c r="BS10" s="1">
         <v>19</v>
       </c>
+      <c r="BT10" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2416,8 +2440,11 @@
       <c r="BS11" s="1">
         <v>11</v>
       </c>
+      <c r="BT11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2633,16 +2660,19 @@
       <c r="BS12" s="4">
         <v>452</v>
       </c>
+      <c r="BT12" s="4">
+        <v>459</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2655,13 +2685,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BS16"/>
+  <dimension ref="A1:BT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS4" sqref="BS4"/>
+      <selection pane="bottomRight" activeCell="BS6" sqref="BS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2670,16 +2700,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="71" width="6.73046875" style="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="72" width="6.73046875" style="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2893,8 +2923,11 @@
       <c r="BS3" s="6">
         <v>44035</v>
       </c>
+      <c r="BT3" s="6">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3108,8 +3141,11 @@
       <c r="BS4" s="1">
         <v>46</v>
       </c>
+      <c r="BT4" s="1">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3323,8 +3359,11 @@
       <c r="BS5" s="1">
         <v>427</v>
       </c>
+      <c r="BT5" s="1">
+        <v>449</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3538,8 +3577,11 @@
       <c r="BS6" s="1">
         <v>23</v>
       </c>
+      <c r="BT6" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3753,8 +3795,11 @@
       <c r="BS7" s="1">
         <v>511</v>
       </c>
+      <c r="BT7" s="1">
+        <v>560</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3968,8 +4013,11 @@
       <c r="BS8" s="1">
         <v>203</v>
       </c>
+      <c r="BT8" s="1">
+        <v>203</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4183,8 +4231,11 @@
       <c r="BS9" s="1">
         <v>124</v>
       </c>
+      <c r="BT9" s="1">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4398,8 +4449,11 @@
       <c r="BS10" s="1">
         <v>135</v>
       </c>
+      <c r="BT10" s="1">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4613,8 +4667,11 @@
       <c r="BS11" s="1">
         <v>41</v>
       </c>
+      <c r="BT11" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4829,21 +4886,24 @@
       <c r="BS12" s="4">
         <v>1510</v>
       </c>
+      <c r="BT12" s="4">
+        <v>1604</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4855,13 +4915,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS3" sqref="BS3"/>
+      <selection pane="bottomRight" activeCell="BS10" sqref="BS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4871,16 +4931,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
-    <col min="58" max="71" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="72" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5094,8 +5154,11 @@
       <c r="BS3" s="6">
         <v>44035</v>
       </c>
+      <c r="BT3" s="6">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5309,8 +5372,11 @@
       <c r="BS4" s="1">
         <v>2</v>
       </c>
+      <c r="BT4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5524,8 +5590,11 @@
       <c r="BS5" s="1">
         <v>102</v>
       </c>
+      <c r="BT5" s="1">
+        <v>105</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5739,8 +5808,11 @@
       <c r="BS6" s="1">
         <v>5</v>
       </c>
+      <c r="BT6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5954,8 +6026,11 @@
       <c r="BS7" s="1">
         <v>57</v>
       </c>
+      <c r="BT7" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6169,8 +6244,11 @@
       <c r="BS8" s="1">
         <v>29</v>
       </c>
+      <c r="BT8" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6384,8 +6462,11 @@
       <c r="BS9" s="1">
         <v>23</v>
       </c>
+      <c r="BT9" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6599,8 +6680,11 @@
       <c r="BS10" s="1">
         <v>5</v>
       </c>
+      <c r="BT10" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6814,8 +6898,11 @@
       <c r="BS11" s="1">
         <v>4</v>
       </c>
+      <c r="BT11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7029,16 +7116,19 @@
       <c r="BS12" s="4">
         <v>227</v>
       </c>
+      <c r="BT12" s="4">
+        <v>243</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7050,13 +7140,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BT17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS2" sqref="BS2"/>
+      <selection pane="bottomRight" activeCell="BT1" sqref="BT1:BT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7066,16 +7156,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="71" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="72" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -7289,8 +7379,11 @@
       <c r="BS3" s="6">
         <v>44035</v>
       </c>
+      <c r="BT3" s="6">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7504,8 +7597,11 @@
       <c r="BS4" s="1">
         <v>36</v>
       </c>
+      <c r="BT4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7719,8 +7815,11 @@
       <c r="BS5" s="1">
         <v>191</v>
       </c>
+      <c r="BT5" s="1">
+        <v>207</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7934,8 +8033,11 @@
       <c r="BS6" s="1">
         <v>12</v>
       </c>
+      <c r="BT6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -8149,8 +8251,11 @@
       <c r="BS7" s="1">
         <v>140</v>
       </c>
+      <c r="BT7" s="1">
+        <v>156</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8364,8 +8469,11 @@
       <c r="BS8" s="1">
         <v>99</v>
       </c>
+      <c r="BT8" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8579,8 +8687,11 @@
       <c r="BS9" s="1">
         <v>19</v>
       </c>
+      <c r="BT9" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8794,8 +8905,11 @@
       <c r="BS10" s="1">
         <v>11</v>
       </c>
+      <c r="BT10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -9009,8 +9123,11 @@
       <c r="BS11" s="1">
         <v>13</v>
       </c>
+      <c r="BT11" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -9226,21 +9343,24 @@
       <c r="BS12" s="4">
         <v>521</v>
       </c>
+      <c r="BT12" s="4">
+        <v>569</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34F606AE-D593-4CBE-B27B-835F81DBF7EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C3E2210-3E73-484F-9AD5-EEA9E256146C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -457,13 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS4" sqref="BS4"/>
+      <selection pane="bottomRight" activeCell="BU3" sqref="BU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -473,16 +473,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="72" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="73" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -699,8 +699,11 @@
       <c r="BT3" s="6">
         <v>44036</v>
       </c>
+      <c r="BU3" s="6">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -917,8 +920,11 @@
       <c r="BT4" s="1">
         <v>23</v>
       </c>
+      <c r="BU4" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1141,11 @@
       <c r="BT5" s="1">
         <v>148</v>
       </c>
+      <c r="BU5" s="1">
+        <v>150</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1353,8 +1362,11 @@
       <c r="BT6" s="1">
         <v>21</v>
       </c>
+      <c r="BU6" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1571,8 +1583,11 @@
       <c r="BT7" s="1">
         <v>139</v>
       </c>
+      <c r="BU7" s="1">
+        <v>146</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1789,8 +1804,11 @@
       <c r="BT8" s="1">
         <v>43</v>
       </c>
+      <c r="BU8" s="1">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2007,8 +2025,11 @@
       <c r="BT9" s="1">
         <v>55</v>
       </c>
+      <c r="BU9" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2225,8 +2246,11 @@
       <c r="BT10" s="1">
         <v>19</v>
       </c>
+      <c r="BU10" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2443,8 +2467,11 @@
       <c r="BT11" s="1">
         <v>11</v>
       </c>
+      <c r="BU11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2663,16 +2690,19 @@
       <c r="BT12" s="4">
         <v>459</v>
       </c>
+      <c r="BU12" s="4">
+        <v>470</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2685,13 +2715,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BT16"/>
+  <dimension ref="A1:BU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS6" sqref="BS6"/>
+      <selection pane="bottomRight" activeCell="BU1" sqref="BU1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2700,16 +2730,16 @@
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="72" width="6.73046875" style="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="1"/>
+    <col min="49" max="73" width="6.73046875" style="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2926,8 +2956,11 @@
       <c r="BT3" s="6">
         <v>44036</v>
       </c>
+      <c r="BU3" s="6">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3144,8 +3177,11 @@
       <c r="BT4" s="1">
         <v>47</v>
       </c>
+      <c r="BU4" s="1">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3362,8 +3398,11 @@
       <c r="BT5" s="1">
         <v>449</v>
       </c>
+      <c r="BU5" s="1">
+        <v>451</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3580,8 +3619,11 @@
       <c r="BT6" s="1">
         <v>25</v>
       </c>
+      <c r="BU6" s="1">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3798,8 +3840,11 @@
       <c r="BT7" s="1">
         <v>560</v>
       </c>
+      <c r="BU7" s="1">
+        <v>571</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4016,8 +4061,11 @@
       <c r="BT8" s="1">
         <v>203</v>
       </c>
+      <c r="BU8" s="1">
+        <v>214</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4234,8 +4282,11 @@
       <c r="BT9" s="1">
         <v>146</v>
       </c>
+      <c r="BU9" s="1">
+        <v>167</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4452,8 +4503,11 @@
       <c r="BT10" s="1">
         <v>135</v>
       </c>
+      <c r="BU10" s="1">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4670,8 +4724,11 @@
       <c r="BT11" s="1">
         <v>39</v>
       </c>
+      <c r="BU11" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4889,21 +4946,24 @@
       <c r="BT12" s="4">
         <v>1604</v>
       </c>
+      <c r="BU12" s="4">
+        <v>1651</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4915,13 +4975,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS10" sqref="BS10"/>
+      <selection pane="bottomRight" activeCell="BU2" sqref="BU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4931,16 +4991,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
-    <col min="58" max="72" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="73" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5157,8 +5217,11 @@
       <c r="BT3" s="6">
         <v>44036</v>
       </c>
+      <c r="BU3" s="6">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5375,8 +5438,11 @@
       <c r="BT4" s="1">
         <v>2</v>
       </c>
+      <c r="BU4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5593,8 +5659,11 @@
       <c r="BT5" s="1">
         <v>105</v>
       </c>
+      <c r="BU5" s="1">
+        <v>105</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5811,8 +5880,11 @@
       <c r="BT6" s="1">
         <v>5</v>
       </c>
+      <c r="BU6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6029,8 +6101,11 @@
       <c r="BT7" s="1">
         <v>64</v>
       </c>
+      <c r="BU7" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6247,8 +6322,11 @@
       <c r="BT8" s="1">
         <v>29</v>
       </c>
+      <c r="BU8" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6465,8 +6543,11 @@
       <c r="BT9" s="1">
         <v>29</v>
       </c>
+      <c r="BU9" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6683,8 +6764,11 @@
       <c r="BT10" s="1">
         <v>5</v>
       </c>
+      <c r="BU10" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6901,8 +6985,11 @@
       <c r="BT11" s="1">
         <v>4</v>
       </c>
+      <c r="BU11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7119,16 +7206,19 @@
       <c r="BT12" s="4">
         <v>243</v>
       </c>
+      <c r="BU12" s="4">
+        <v>247</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7140,13 +7230,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BT17"/>
+  <dimension ref="A1:BU17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BT1" sqref="BT1:BT1048576"/>
+      <selection pane="bottomRight" activeCell="BU7" sqref="BU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7156,16 +7246,16 @@
     <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="72" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="73" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -7382,8 +7472,11 @@
       <c r="BT3" s="6">
         <v>44036</v>
       </c>
+      <c r="BU3" s="6">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7600,8 +7693,11 @@
       <c r="BT4" s="1">
         <v>36</v>
       </c>
+      <c r="BU4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7818,8 +7914,11 @@
       <c r="BT5" s="1">
         <v>207</v>
       </c>
+      <c r="BU5" s="1">
+        <v>207</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -8036,8 +8135,11 @@
       <c r="BT6" s="1">
         <v>13</v>
       </c>
+      <c r="BU6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -8254,8 +8356,11 @@
       <c r="BT7" s="1">
         <v>156</v>
       </c>
+      <c r="BU7" s="1">
+        <v>157</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8472,8 +8577,11 @@
       <c r="BT8" s="1">
         <v>99</v>
       </c>
+      <c r="BU8" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8690,8 +8798,11 @@
       <c r="BT9" s="1">
         <v>35</v>
       </c>
+      <c r="BU9" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8908,8 +9019,11 @@
       <c r="BT10" s="1">
         <v>11</v>
       </c>
+      <c r="BU10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -9126,8 +9240,11 @@
       <c r="BT11" s="1">
         <v>12</v>
       </c>
+      <c r="BU11" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -9346,21 +9463,25 @@
       <c r="BT12" s="4">
         <v>569</v>
       </c>
+      <c r="BU12" s="4">
+        <f t="shared" ref="BU12" si="1">SUM(BU4:BU11)</f>
+        <v>571</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C3E2210-3E73-484F-9AD5-EEA9E256146C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82BDFF94-0781-4ED0-A04D-3B7F2C0FFB89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -457,32 +457,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BU15"/>
+  <dimension ref="A1:BV15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BU3" sqref="BU3"/>
+      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1484375" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.73046875" style="1" customWidth="1"/>
-    <col min="58" max="73" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.75" style="1" customWidth="1"/>
+    <col min="58" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -702,8 +702,11 @@
       <c r="BU3" s="6">
         <v>44037</v>
       </c>
+      <c r="BV3" s="6">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -923,8 +926,11 @@
       <c r="BU4" s="1">
         <v>23</v>
       </c>
+      <c r="BV4" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1144,8 +1150,11 @@
       <c r="BU5" s="1">
         <v>150</v>
       </c>
+      <c r="BV5" s="1">
+        <v>152</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1365,8 +1374,11 @@
       <c r="BU6" s="1">
         <v>21</v>
       </c>
+      <c r="BV6" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1586,8 +1598,11 @@
       <c r="BU7" s="1">
         <v>146</v>
       </c>
+      <c r="BV7" s="1">
+        <v>147</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1807,8 +1822,11 @@
       <c r="BU8" s="1">
         <v>45</v>
       </c>
+      <c r="BV8" s="1">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2028,8 +2046,11 @@
       <c r="BU9" s="1">
         <v>55</v>
       </c>
+      <c r="BV9" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2249,8 +2270,11 @@
       <c r="BU10" s="1">
         <v>19</v>
       </c>
+      <c r="BV10" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2470,8 +2494,11 @@
       <c r="BU11" s="1">
         <v>11</v>
       </c>
+      <c r="BV11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2693,16 +2720,19 @@
       <c r="BU12" s="4">
         <v>470</v>
       </c>
+      <c r="BV12" s="4">
+        <v>474</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2715,31 +2745,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BU16"/>
+  <dimension ref="A1:BV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BU1" sqref="BU1:BU1048576"/>
+      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="73" width="6.73046875" style="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="73" width="6.75" style="1" customWidth="1"/>
+    <col min="74" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2959,8 +2990,11 @@
       <c r="BU3" s="6">
         <v>44037</v>
       </c>
+      <c r="BV3" s="6">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3180,8 +3214,11 @@
       <c r="BU4" s="1">
         <v>47</v>
       </c>
+      <c r="BV4" s="1">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3401,8 +3438,11 @@
       <c r="BU5" s="1">
         <v>451</v>
       </c>
+      <c r="BV5" s="1">
+        <v>450</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3622,8 +3662,11 @@
       <c r="BU6" s="1">
         <v>27</v>
       </c>
+      <c r="BV6" s="1">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3843,8 +3886,11 @@
       <c r="BU7" s="1">
         <v>571</v>
       </c>
+      <c r="BV7" s="1">
+        <v>595</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4064,8 +4110,11 @@
       <c r="BU8" s="1">
         <v>214</v>
       </c>
+      <c r="BV8" s="1">
+        <v>214</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4285,8 +4334,11 @@
       <c r="BU9" s="1">
         <v>167</v>
       </c>
+      <c r="BV9" s="1">
+        <v>165</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4506,8 +4558,11 @@
       <c r="BU10" s="1">
         <v>135</v>
       </c>
+      <c r="BV10" s="1">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4727,8 +4782,11 @@
       <c r="BU11" s="1">
         <v>39</v>
       </c>
+      <c r="BV11" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4949,21 +5007,24 @@
       <c r="BU12" s="4">
         <v>1651</v>
       </c>
+      <c r="BV12" s="4">
+        <v>1673</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -4975,32 +5036,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BU15"/>
+  <dimension ref="A1:BV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BU2" sqref="BU2"/>
+      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.06640625" style="1" customWidth="1"/>
-    <col min="58" max="73" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.046875" style="1" customWidth="1"/>
+    <col min="58" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5220,8 +5281,11 @@
       <c r="BU3" s="6">
         <v>44037</v>
       </c>
+      <c r="BV3" s="6">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5441,8 +5505,11 @@
       <c r="BU4" s="1">
         <v>2</v>
       </c>
+      <c r="BV4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5662,8 +5729,11 @@
       <c r="BU5" s="1">
         <v>105</v>
       </c>
+      <c r="BV5" s="1">
+        <v>105</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5883,8 +5953,11 @@
       <c r="BU6" s="1">
         <v>5</v>
       </c>
+      <c r="BV6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6104,8 +6177,11 @@
       <c r="BU7" s="1">
         <v>64</v>
       </c>
+      <c r="BV7" s="1">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6325,8 +6401,11 @@
       <c r="BU8" s="1">
         <v>31</v>
       </c>
+      <c r="BV8" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6546,8 +6625,11 @@
       <c r="BU9" s="1">
         <v>31</v>
       </c>
+      <c r="BV9" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6767,8 +6849,11 @@
       <c r="BU10" s="1">
         <v>5</v>
       </c>
+      <c r="BV10" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -6988,8 +7073,11 @@
       <c r="BU11" s="1">
         <v>4</v>
       </c>
+      <c r="BV11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7209,16 +7297,19 @@
       <c r="BU12" s="4">
         <v>247</v>
       </c>
+      <c r="BV12" s="4">
+        <v>253</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7230,32 +7321,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BU17"/>
+  <dimension ref="A1:BV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BU7" sqref="BU7"/>
+      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="73" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="1"/>
+    <col min="58" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -7475,8 +7566,11 @@
       <c r="BU3" s="6">
         <v>44037</v>
       </c>
+      <c r="BV3" s="6">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7696,8 +7790,11 @@
       <c r="BU4" s="1">
         <v>36</v>
       </c>
+      <c r="BV4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7917,8 +8014,11 @@
       <c r="BU5" s="1">
         <v>207</v>
       </c>
+      <c r="BV5" s="1">
+        <v>208</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -8138,8 +8238,11 @@
       <c r="BU6" s="1">
         <v>13</v>
       </c>
+      <c r="BV6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -8359,8 +8462,11 @@
       <c r="BU7" s="1">
         <v>157</v>
       </c>
+      <c r="BV7" s="1">
+        <v>161</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8580,8 +8686,11 @@
       <c r="BU8" s="1">
         <v>100</v>
       </c>
+      <c r="BV8" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8801,8 +8910,11 @@
       <c r="BU9" s="1">
         <v>35</v>
       </c>
+      <c r="BV9" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -9022,8 +9134,11 @@
       <c r="BU10" s="1">
         <v>11</v>
       </c>
+      <c r="BV10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -9243,8 +9358,11 @@
       <c r="BU11" s="1">
         <v>12</v>
       </c>
+      <c r="BV11" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -9467,26 +9585,29 @@
         <f t="shared" ref="BU12" si="1">SUM(BU4:BU11)</f>
         <v>571</v>
       </c>
+      <c r="BV12" s="4">
+        <v>576</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82BDFF94-0781-4ED0-A04D-3B7F2C0FFB89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4C8CAD7-98F5-45D1-B17E-AA3E90B81E3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8634" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -457,32 +457,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BV15"/>
+  <dimension ref="A1:BW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.1484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.15625" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.75" style="1" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.0390625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.7578125" style="1" customWidth="1"/>
     <col min="58" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.046875" style="1"/>
+    <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -705,8 +705,11 @@
       <c r="BV3" s="6">
         <v>44038</v>
       </c>
+      <c r="BW3" s="6">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -929,8 +932,11 @@
       <c r="BV4" s="1">
         <v>23</v>
       </c>
+      <c r="BW4" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1153,8 +1159,11 @@
       <c r="BV5" s="1">
         <v>152</v>
       </c>
+      <c r="BW5" s="1">
+        <v>156</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1377,8 +1386,11 @@
       <c r="BV6" s="1">
         <v>22</v>
       </c>
+      <c r="BW6" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1601,8 +1613,11 @@
       <c r="BV7" s="1">
         <v>147</v>
       </c>
+      <c r="BW7" s="1">
+        <v>147</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1825,8 +1840,11 @@
       <c r="BV8" s="1">
         <v>45</v>
       </c>
+      <c r="BW8" s="1">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2049,8 +2067,11 @@
       <c r="BV9" s="1">
         <v>55</v>
       </c>
+      <c r="BW9" s="1">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2273,8 +2294,11 @@
       <c r="BV10" s="1">
         <v>19</v>
       </c>
+      <c r="BW10" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2497,8 +2521,11 @@
       <c r="BV11" s="1">
         <v>11</v>
       </c>
+      <c r="BW11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2723,16 +2750,19 @@
       <c r="BV12" s="4">
         <v>474</v>
       </c>
+      <c r="BW12" s="4">
+        <v>480</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2745,32 +2775,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BV16"/>
+  <dimension ref="A1:BW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="73" width="6.75" style="1" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.0390625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="73" width="6.7578125" style="1" customWidth="1"/>
     <col min="74" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.046875" style="1"/>
+    <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2993,8 +3023,11 @@
       <c r="BV3" s="6">
         <v>44038</v>
       </c>
+      <c r="BW3" s="6">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3217,8 +3250,11 @@
       <c r="BV4" s="1">
         <v>47</v>
       </c>
+      <c r="BW4" s="1">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3441,8 +3477,11 @@
       <c r="BV5" s="1">
         <v>450</v>
       </c>
+      <c r="BW5" s="1">
+        <v>460</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3665,8 +3704,11 @@
       <c r="BV6" s="1">
         <v>28</v>
       </c>
+      <c r="BW6" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3889,8 +3931,11 @@
       <c r="BV7" s="1">
         <v>595</v>
       </c>
+      <c r="BW7" s="1">
+        <v>595</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4113,8 +4158,11 @@
       <c r="BV8" s="1">
         <v>214</v>
       </c>
+      <c r="BW8" s="1">
+        <v>214</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4337,8 +4385,11 @@
       <c r="BV9" s="1">
         <v>165</v>
       </c>
+      <c r="BW9" s="1">
+        <v>155</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4561,8 +4612,11 @@
       <c r="BV10" s="1">
         <v>135</v>
       </c>
+      <c r="BW10" s="1">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4785,8 +4839,11 @@
       <c r="BV11" s="1">
         <v>39</v>
       </c>
+      <c r="BW11" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5010,21 +5067,24 @@
       <c r="BV12" s="4">
         <v>1673</v>
       </c>
+      <c r="BW12" s="4">
+        <v>1694</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -5036,32 +5096,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BV15"/>
+  <dimension ref="A1:BW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.359375" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.046875" style="1" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.0390625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.0390625" style="1" customWidth="1"/>
     <col min="58" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.046875" style="1"/>
+    <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5284,8 +5344,11 @@
       <c r="BV3" s="6">
         <v>44038</v>
       </c>
+      <c r="BW3" s="6">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5508,8 +5571,11 @@
       <c r="BV4" s="1">
         <v>2</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5732,8 +5798,11 @@
       <c r="BV5" s="1">
         <v>105</v>
       </c>
+      <c r="BW5" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5956,8 +6025,11 @@
       <c r="BV6" s="1">
         <v>5</v>
       </c>
+      <c r="BW6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6180,8 +6252,11 @@
       <c r="BV7" s="1">
         <v>68</v>
       </c>
+      <c r="BW7" s="1">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6404,8 +6479,11 @@
       <c r="BV8" s="1">
         <v>31</v>
       </c>
+      <c r="BW8" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6628,8 +6706,11 @@
       <c r="BV9" s="1">
         <v>33</v>
       </c>
+      <c r="BW9" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6852,8 +6933,11 @@
       <c r="BV10" s="1">
         <v>5</v>
       </c>
+      <c r="BW10" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7076,8 +7160,11 @@
       <c r="BV11" s="1">
         <v>4</v>
       </c>
+      <c r="BW11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7300,16 +7387,19 @@
       <c r="BV12" s="4">
         <v>253</v>
       </c>
+      <c r="BW12" s="4">
+        <v>255</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7321,32 +7411,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BV17"/>
+  <dimension ref="A1:BW17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.359375" style="1" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.0390625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7" style="1" customWidth="1"/>
     <col min="58" max="74" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.046875" style="1"/>
+    <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -7569,8 +7659,11 @@
       <c r="BV3" s="6">
         <v>44038</v>
       </c>
+      <c r="BW3" s="6">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7793,8 +7886,11 @@
       <c r="BV4" s="1">
         <v>36</v>
       </c>
+      <c r="BW4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8017,8 +8113,11 @@
       <c r="BV5" s="1">
         <v>208</v>
       </c>
+      <c r="BW5" s="1">
+        <v>209</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -8241,8 +8340,11 @@
       <c r="BV6" s="1">
         <v>13</v>
       </c>
+      <c r="BW6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -8465,8 +8567,11 @@
       <c r="BV7" s="1">
         <v>161</v>
       </c>
+      <c r="BW7" s="1">
+        <v>161</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8689,8 +8794,11 @@
       <c r="BV8" s="1">
         <v>100</v>
       </c>
+      <c r="BW8" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8913,8 +9021,11 @@
       <c r="BV9" s="1">
         <v>35</v>
       </c>
+      <c r="BW9" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -9137,8 +9248,11 @@
       <c r="BV10" s="1">
         <v>11</v>
       </c>
+      <c r="BW10" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -9361,8 +9475,11 @@
       <c r="BV11" s="1">
         <v>12</v>
       </c>
+      <c r="BW11" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -9588,26 +9705,29 @@
       <c r="BV12" s="4">
         <v>576</v>
       </c>
+      <c r="BW12" s="4">
+        <v>568</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>

--- a/original-sources/DSHS_alf.xlsx
+++ b/original-sources/DSHS_alf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4C8CAD7-98F5-45D1-B17E-AA3E90B81E3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6311122-4BAC-4BCB-A1FD-F9DB3F36EB74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8634" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8634" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BW15"/>
+  <dimension ref="A1:BX15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -477,12 +477,12 @@
     <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -708,8 +708,11 @@
       <c r="BW3" s="6">
         <v>44039</v>
       </c>
+      <c r="BX3" s="6">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -935,8 +938,11 @@
       <c r="BW4" s="1">
         <v>23</v>
       </c>
+      <c r="BX4" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1162,8 +1168,11 @@
       <c r="BW5" s="1">
         <v>156</v>
       </c>
+      <c r="BX5" s="1">
+        <v>157</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1389,8 +1398,11 @@
       <c r="BW6" s="1">
         <v>22</v>
       </c>
+      <c r="BX6" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1616,8 +1628,11 @@
       <c r="BW7" s="1">
         <v>147</v>
       </c>
+      <c r="BX7" s="1">
+        <v>147</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1843,8 +1858,11 @@
       <c r="BW8" s="1">
         <v>45</v>
       </c>
+      <c r="BX8" s="1">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2070,8 +2088,11 @@
       <c r="BW9" s="1">
         <v>56</v>
       </c>
+      <c r="BX9" s="1">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2297,8 +2318,11 @@
       <c r="BW10" s="1">
         <v>20</v>
       </c>
+      <c r="BX10" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2524,8 +2548,11 @@
       <c r="BW11" s="1">
         <v>11</v>
       </c>
+      <c r="BX11" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2753,16 +2780,19 @@
       <c r="BW12" s="4">
         <v>480</v>
       </c>
+      <c r="BX12" s="4">
+        <v>484</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2775,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BW16"/>
+  <dimension ref="A1:BX16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2795,12 +2825,12 @@
     <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3026,8 +3056,11 @@
       <c r="BW3" s="6">
         <v>44039</v>
       </c>
+      <c r="BX3" s="6">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3253,8 +3286,11 @@
       <c r="BW4" s="1">
         <v>52</v>
       </c>
+      <c r="BX4" s="1">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3480,8 +3516,11 @@
       <c r="BW5" s="1">
         <v>460</v>
       </c>
+      <c r="BX5" s="1">
+        <v>514</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3707,8 +3746,11 @@
       <c r="BW6" s="1">
         <v>29</v>
       </c>
+      <c r="BX6" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3934,8 +3976,11 @@
       <c r="BW7" s="1">
         <v>595</v>
       </c>
+      <c r="BX7" s="1">
+        <v>628</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4161,8 +4206,11 @@
       <c r="BW8" s="1">
         <v>214</v>
       </c>
+      <c r="BX8" s="1">
+        <v>227</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4388,8 +4436,11 @@
       <c r="BW9" s="1">
         <v>155</v>
       </c>
+      <c r="BX9" s="1">
+        <v>155</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4615,8 +4666,11 @@
       <c r="BW10" s="1">
         <v>150</v>
       </c>
+      <c r="BX10" s="1">
+        <v>144</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -4842,8 +4896,11 @@
       <c r="BW11" s="1">
         <v>39</v>
       </c>
+      <c r="BX11" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5070,21 +5127,24 @@
       <c r="BW12" s="4">
         <v>1694</v>
       </c>
+      <c r="BX12" s="4">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -5096,10 +5156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BW15"/>
+  <dimension ref="A1:BX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -5116,12 +5176,12 @@
     <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5347,8 +5407,11 @@
       <c r="BW3" s="6">
         <v>44039</v>
       </c>
+      <c r="BX3" s="6">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5574,8 +5637,11 @@
       <c r="BW4" s="1">
         <v>2</v>
       </c>
+      <c r="BX4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5801,8 +5867,11 @@
       <c r="BW5" s="1">
         <v>106</v>
       </c>
+      <c r="BX5" s="1">
+        <v>110</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -6028,8 +6097,11 @@
       <c r="BW6" s="1">
         <v>5</v>
       </c>
+      <c r="BX6" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6255,8 +6327,11 @@
       <c r="BW7" s="1">
         <v>68</v>
       </c>
+      <c r="BX7" s="1">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6482,8 +6557,11 @@
       <c r="BW8" s="1">
         <v>31</v>
       </c>
+      <c r="BX8" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6709,8 +6787,11 @@
       <c r="BW9" s="1">
         <v>33</v>
       </c>
+      <c r="BX9" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6936,8 +7017,11 @@
       <c r="BW10" s="1">
         <v>6</v>
       </c>
+      <c r="BX10" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -7163,8 +7247,11 @@
       <c r="BW11" s="1">
         <v>4</v>
       </c>
+      <c r="BX11" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -7390,16 +7477,19 @@
       <c r="BW12" s="4">
         <v>255</v>
       </c>
+      <c r="BX12" s="4">
+        <v>265</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7411,10 +7501,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BW17"/>
+  <dimension ref="A1:BX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -7431,12 +7521,12 @@
     <col min="75" max="16384" width="9.0390625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -7662,8 +7752,11 @@
       <c r="BW3" s="6">
         <v>44039</v>
       </c>
+      <c r="BX3" s="6">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7889,8 +7982,11 @@
       <c r="BW4" s="1">
         <v>36</v>
       </c>
+      <c r="BX4" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8116,8 +8212,11 @@
       <c r="BW5" s="1">
         <v>209</v>
       </c>
+      <c r="BX5" s="1">
+        <v>239</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -8343,8 +8442,11 @@
       <c r="BW6" s="1">
         <v>13</v>
       </c>
+      <c r="BX6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -8570,8 +8672,11 @@
       <c r="BW7" s="1">
         <v>161</v>
       </c>
+      <c r="BX7" s="1">
+        <v>167</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8797,8 +8902,11 @@
       <c r="BW8" s="1">
         <v>100</v>
       </c>
+      <c r="BX8" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9024,8 +9132,11 @@
       <c r="BW9" s="1">
         <v>26</v>
       </c>
+      <c r="BX9" s="1">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -9251,8 +9362,11 @@
       <c r="BW10" s="1">
         <v>11</v>
       </c>
+      <c r="BX10" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -9478,8 +9592,11 @@
       <c r="BW11" s="1">
         <v>12</v>
       </c>
+      <c r="BX11" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -9708,21 +9825,24 @@
       <c r="BW12" s="4">
         <v>568</v>
       </c>
+      <c r="BX12" s="4">
+        <v>600</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.45">
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
